--- a/model_evaluation/evaluation_results/crossval_multiclass_CBF_T1w_FLAIR_results_20250909_165006.xlsx
+++ b/model_evaluation/evaluation_results/crossval_multiclass_CBF_T1w_FLAIR_results_20250909_165006.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Per_Class_Details" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Per_Case_Details" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Per_Hemisphere_Details" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Per_Class_Summary" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Per_Hemisphere_Summary" sheetId="4" state="visible" r:id="rId4"/>
@@ -440,17 +440,17 @@
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="19" customWidth="1" min="5" max="5"/>
-    <col width="21" customWidth="1" min="6" max="6"/>
-    <col width="21" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
-    <col width="21" customWidth="1" min="9" max="9"/>
-    <col width="21" customWidth="1" min="10" max="10"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
     <col width="20" customWidth="1" min="11" max="11"/>
     <col width="22" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
-    <col width="21" customWidth="1" min="14" max="14"/>
+    <col width="19" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -471,12 +471,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Base_Name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Class</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -541,12 +541,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Perfusion_Left</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>PerfTerr001-v1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -588,45 +588,45 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PerfTerr001-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr001-v1</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9261914320123874</v>
+        <v>0.8059105431309904</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9205353176196297</v>
+        <v>0.7668741385373546</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8625293740653707</v>
+        <v>0.6749163879598662</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9495531514581373</v>
+        <v>0.7586466165413533</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9039516399865667</v>
+        <v>0.8594548551959114</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9894199467298017</v>
+        <v>0.9981307352441373</v>
       </c>
       <c r="L3" t="n">
-        <v>5.044684854186265</v>
+        <v>-11.72932330827068</v>
       </c>
       <c r="M3" t="n">
-        <v>3.712310601229374</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9176694440614466</v>
+        <v>1.119506136941044</v>
       </c>
     </row>
     <row r="4">
@@ -640,45 +640,45 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PerfTerr001-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr001-v1</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.9404736505227225</v>
+        <v>0.9306930693069307</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9325158283677235</v>
+        <v>0.9224210129777092</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8876359242851389</v>
+        <v>0.8703703703703703</v>
       </c>
       <c r="I4" t="n">
-        <v>0.939371337240277</v>
+        <v>0.9509054895302773</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9415785538823027</v>
+        <v>0.9113220338983051</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9931808265287041</v>
+        <v>0.9920758009014685</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.2344166222695791</v>
+        <v>4.343520090548953</v>
       </c>
       <c r="M4" t="n">
         <v>2.625</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7694327565294674</v>
+        <v>0.6629477938645567</v>
       </c>
     </row>
     <row r="5">
@@ -687,50 +687,50 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PerfTerr002-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr001-v2</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9443890771377317</v>
+        <v>0.9261914320123874</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9350458117749608</v>
+        <v>0.9205353176196297</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8946374622356495</v>
+        <v>0.8625293740653707</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9251195938689837</v>
+        <v>0.9495531514581373</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9644783715012722</v>
+        <v>0.9039516399865667</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9956021522991041</v>
+        <v>0.9894199467298017</v>
       </c>
       <c r="L5" t="n">
-        <v>-4.080835692668164</v>
+        <v>5.044684854186265</v>
       </c>
       <c r="M5" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6742171708004245</v>
+        <v>0.9176694440614466</v>
       </c>
     </row>
     <row r="6">
@@ -739,7 +739,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -749,40 +749,40 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PerfTerr002-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr001-v2</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9285400712160382</v>
+        <v>0.7502401536983669</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9101676581179513</v>
+        <v>0.6991004661202759</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8666120367841209</v>
+        <v>0.6003074558032283</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9127349443805139</v>
+        <v>0.7265116279069768</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9449022138389754</v>
+        <v>0.7755710029791459</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9929899459404841</v>
+        <v>0.9974470488562553</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.404296125815113</v>
+        <v>-6.325581395348837</v>
       </c>
       <c r="M6" t="n">
-        <v>3.712310601229374</v>
+        <v>7.102860250712379</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8096179774478658</v>
+        <v>1.476857666430022</v>
       </c>
     </row>
     <row r="7">
@@ -791,163 +791,163 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PerfTerr002-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr001-v2</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.886445359320444</v>
+        <v>0.9211925432397874</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8762221054829452</v>
+        <v>0.9128097852514296</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7960501684762261</v>
+        <v>0.8538989394884592</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8810732414793329</v>
+        <v>0.9314099074578116</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8918833892617449</v>
+        <v>0.9111969111969112</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9871039563710958</v>
+        <v>0.9918907746924087</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.212058427431886</v>
+        <v>2.218290691344583</v>
       </c>
       <c r="M7" t="n">
-        <v>5.25</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N7" t="n">
-        <v>1.077045690301531</v>
+        <v>0.8028082901694178</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PerfTerr003-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr001-v3</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9412510810031709</v>
+        <v>0.9404736505227225</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9300095824166172</v>
+        <v>0.9325158283677235</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8890219995643651</v>
+        <v>0.8876359242851389</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9474233983286908</v>
+        <v>0.939371337240277</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9351586665139191</v>
+        <v>0.9415785538823027</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9930109651289144</v>
+        <v>0.9931808265287041</v>
       </c>
       <c r="L8" t="n">
-        <v>1.311513463324048</v>
+        <v>-0.2344166222695791</v>
       </c>
       <c r="M8" t="n">
-        <v>3.712310601229374</v>
+        <v>2.625</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8280710104662972</v>
+        <v>0.7694327565294674</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PerfTerr003-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr001-v3</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9371640186357664</v>
+        <v>0.7199597787833082</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9218714722109917</v>
+        <v>0.7111015784911731</v>
       </c>
       <c r="H9" t="n">
-        <v>0.881757895919973</v>
+        <v>0.5624509033778476</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9198030249736194</v>
+        <v>0.6167097329888027</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9551929867283575</v>
+        <v>0.8647342995169082</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9954607689556069</v>
+        <v>0.9987335903843327</v>
       </c>
       <c r="L9" t="n">
-        <v>-3.705006448587173</v>
+        <v>-28.68217054263566</v>
       </c>
       <c r="M9" t="n">
-        <v>3.712310601229374</v>
+        <v>6.015742733675939</v>
       </c>
       <c r="N9" t="n">
-        <v>1.003818921089912</v>
+        <v>1.258756700307323</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -957,49 +957,49 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PerfTerr003-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr001-v3</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.9526577608853614</v>
+        <v>0.9295439524124256</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9436120309048147</v>
+        <v>0.9218907292747776</v>
       </c>
       <c r="H10" t="n">
-        <v>0.909595474436973</v>
+        <v>0.8683625586564584</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9441613117660093</v>
+        <v>0.9382254836557705</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9613085166384658</v>
+        <v>0.9210216110019647</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9957430436617271</v>
+        <v>0.9926557456914926</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.78373587414137</v>
+        <v>1.867911941294196</v>
       </c>
       <c r="M10" t="n">
         <v>2.625</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6337186897440011</v>
+        <v>0.7084034782973486</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1009,205 +1009,205 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PerfTerr004-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr002-v1</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9512559529367821</v>
+        <v>0.9443890771377317</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9456337624168019</v>
+        <v>0.9350458117749608</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9070430059656308</v>
+        <v>0.8946374622356495</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9265963252683281</v>
+        <v>0.9251195938689837</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9772640061396777</v>
+        <v>0.9644783715012722</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9969849629799252</v>
+        <v>0.9956021522991041</v>
       </c>
       <c r="L11" t="n">
-        <v>-5.18464617063853</v>
+        <v>-4.080835692668164</v>
       </c>
       <c r="M11" t="n">
         <v>2.625</v>
       </c>
       <c r="N11" t="n">
-        <v>0.709410402323533</v>
+        <v>0.6742171708004245</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PerfTerr004-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr002-v1</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9463543449557436</v>
+        <v>0.7933884297520661</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9368090528841589</v>
+        <v>0.8114463221911581</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8981713543117051</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9475127301214258</v>
+        <v>0.713091922005571</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9451987887076292</v>
+        <v>0.8940628637951106</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9929334408222905</v>
+        <v>0.9989720185714447</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2448100274187231</v>
+        <v>-20.2414113277623</v>
       </c>
       <c r="M12" t="n">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6633284539021354</v>
+        <v>0.9257611980831084</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PerfTerr004-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr002-v1</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9460993620334556</v>
+        <v>0.9395807644882861</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9375142430892124</v>
+        <v>0.9138246866466313</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8977121067683508</v>
+        <v>0.8860465116279069</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9463763880771479</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9320993764228447</v>
+        <v>0.9328820394642086</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9914030778485137</v>
+        <v>0.9943689883512978</v>
       </c>
       <c r="L13" t="n">
-        <v>3.049775601795186</v>
+        <v>1.446522501461134</v>
       </c>
       <c r="M13" t="n">
         <v>2.625</v>
       </c>
       <c r="N13" t="n">
-        <v>0.683539574160978</v>
+        <v>0.7693618131117426</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>sub-p005</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PerfTerr005-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr002-v2</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9444296446267783</v>
+        <v>0.9285400712160382</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9379926541259387</v>
+        <v>0.9101676581179513</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8947102766000404</v>
+        <v>0.8666120367841209</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9375859515497725</v>
+        <v>0.9127349443805139</v>
       </c>
       <c r="J14" t="n">
-        <v>0.951373980249034</v>
+        <v>0.9449022138389754</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9943478857599162</v>
+        <v>0.9929899459404841</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.449275362318841</v>
+        <v>-3.404296125815113</v>
       </c>
       <c r="M14" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7561073348652538</v>
+        <v>0.8096179774478658</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>sub-p005</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1217,205 +1217,205 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PerfTerr005-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr002-v2</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9506432268976475</v>
+        <v>0.700198544010589</v>
       </c>
       <c r="G15" t="n">
-        <v>0.937444718846222</v>
+        <v>0.6941008421235944</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9059294715248608</v>
+        <v>0.5386965376782077</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9503022850701917</v>
+        <v>0.6396614268440145</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9509844134536505</v>
+        <v>0.7733918128654971</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9940131010383136</v>
+        <v>0.9982539736181046</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.07172866072343478</v>
+        <v>-17.29141475211608</v>
       </c>
       <c r="M15" t="n">
-        <v>2.625</v>
+        <v>7.102860250712379</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7000132367905656</v>
+        <v>1.615010323073335</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>sub-p005</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PerfTerr005-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr002-v2</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9422596754057428</v>
+        <v>0.9402702891954345</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9329607103757543</v>
+        <v>0.9316229582168046</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8908232516966657</v>
+        <v>0.8872736883837716</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9495701404906689</v>
+        <v>0.9713541666666666</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9350609126574437</v>
+        <v>0.9111141267471842</v>
       </c>
       <c r="K16" t="n">
-        <v>0.992143588718743</v>
+        <v>0.9920786571207431</v>
       </c>
       <c r="L16" t="n">
-        <v>1.551687984902495</v>
+        <v>6.611689814814816</v>
       </c>
       <c r="M16" t="n">
         <v>2.625</v>
       </c>
       <c r="N16" t="n">
-        <v>0.8180647086338078</v>
+        <v>0.6818245024606669</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>sub-p006</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PerfTerr006-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr002-v3</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.904532967032967</v>
+        <v>0.886445359320444</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8248413176264064</v>
+        <v>0.8762221054829452</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8257053291536051</v>
+        <v>0.7960501684762261</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9531046461137647</v>
+        <v>0.8810732414793329</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8606718076068488</v>
+        <v>0.8918833892617449</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9871086333458297</v>
+        <v>0.9871039563710958</v>
       </c>
       <c r="L17" t="n">
-        <v>10.73961499493414</v>
+        <v>-1.212058427431886</v>
       </c>
       <c r="M17" t="n">
-        <v>5.869678440936948</v>
+        <v>5.25</v>
       </c>
       <c r="N17" t="n">
-        <v>1.34539130617756</v>
+        <v>1.077045690301531</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>sub-p006</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PerfTerr006-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr002-v3</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9289181461533347</v>
+        <v>0.5297342893293969</v>
       </c>
       <c r="G18" t="n">
-        <v>0.91789673216179</v>
+        <v>0.49444379446586</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8672709212813509</v>
+        <v>0.3602983362019507</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9559326673053237</v>
+        <v>0.4700598802395209</v>
       </c>
       <c r="J18" t="n">
-        <v>0.903388515261252</v>
+        <v>0.6067632850241546</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9909226787211549</v>
+        <v>0.9953888334995015</v>
       </c>
       <c r="L18" t="n">
-        <v>5.816340495415355</v>
+        <v>-22.52994011976048</v>
       </c>
       <c r="M18" t="n">
-        <v>3.712310601229374</v>
+        <v>18.375</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9543373477277266</v>
+        <v>4.615640859406839</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>sub-p006</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1425,49 +1425,49 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PerfTerr006-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr002-v3</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9267628641437518</v>
+        <v>0.8912728327051319</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9102008678814546</v>
+        <v>0.8628215003446352</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8635210553018772</v>
+        <v>0.8038702928870293</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9714611872146118</v>
+        <v>0.9199461319766572</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8859968766267569</v>
+        <v>0.8643329115703641</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9893936458736924</v>
+        <v>0.9883618558317353</v>
       </c>
       <c r="L19" t="n">
-        <v>9.646118721461187</v>
+        <v>6.43423612150232</v>
       </c>
       <c r="M19" t="n">
-        <v>3.712310601229374</v>
+        <v>5.25</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9829440617070305</v>
+        <v>1.160047087639156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1477,205 +1477,205 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PerfTerr008-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr003-v1</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9440933918817608</v>
+        <v>0.9412510810031709</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9388151204683711</v>
+        <v>0.9300095824166172</v>
       </c>
       <c r="H20" t="n">
-        <v>0.894106907394259</v>
+        <v>0.8890219995643651</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9556591500433651</v>
+        <v>0.9474233983286908</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9328042328042329</v>
+        <v>0.9351586665139191</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9920996317308649</v>
+        <v>0.9930109651289144</v>
       </c>
       <c r="L20" t="n">
-        <v>2.450130095403296</v>
+        <v>1.311513463324048</v>
       </c>
       <c r="M20" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N20" t="n">
-        <v>0.7285147002417389</v>
+        <v>0.8280710104662972</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PerfTerr008-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr003-v1</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.9339221458946679</v>
+        <v>0.5594936708860759</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9271551705989017</v>
+        <v>0.6062653950172104</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8760355937404112</v>
+        <v>0.3884007029876977</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9429703842342838</v>
+        <v>0.6557863501483679</v>
       </c>
       <c r="J21" t="n">
-        <v>0.925045901285236</v>
+        <v>0.4878587196467991</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9913807022119553</v>
+        <v>0.9974009387988304</v>
       </c>
       <c r="L21" t="n">
-        <v>1.937685786634372</v>
+        <v>34.42136498516321</v>
       </c>
       <c r="M21" t="n">
-        <v>2.625</v>
+        <v>18.375</v>
       </c>
       <c r="N21" t="n">
-        <v>0.7934764714373878</v>
+        <v>3.207341468073541</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PerfTerr008-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr003-v1</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9342530717827118</v>
+        <v>0.9055901343726368</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9304037426213786</v>
+        <v>0.8889335171091642</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8766181229773463</v>
+        <v>0.8274689061337303</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9439181095502559</v>
+        <v>0.9599210753483783</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9247839539101675</v>
+        <v>0.8570799383395727</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9912331969608417</v>
+        <v>0.9840718606962732</v>
       </c>
       <c r="L22" t="n">
-        <v>2.069040618534248</v>
+        <v>11.99901344185473</v>
       </c>
       <c r="M22" t="n">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7998759632513677</v>
+        <v>1.242081748593893</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PerfTerr009-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr003-v2</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.9424249020461472</v>
+        <v>0.9371640186357664</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9340609670903696</v>
+        <v>0.9218714722109917</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8911186580220233</v>
+        <v>0.881757895919973</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9620042217531385</v>
+        <v>0.9198030249736194</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9236266666666667</v>
+        <v>0.9551929867283575</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9911165150932394</v>
+        <v>0.9954607689556069</v>
       </c>
       <c r="L23" t="n">
-        <v>4.155093878457949</v>
+        <v>-3.705006448587173</v>
       </c>
       <c r="M23" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N23" t="n">
-        <v>0.6939721358934622</v>
+        <v>1.003818921089912</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1685,205 +1685,205 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PerfTerr009-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr003-v2</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.9236488735989347</v>
+        <v>0.7793560606060606</v>
       </c>
       <c r="G24" t="n">
-        <v>0.914022890193805</v>
+        <v>0.7322600593983751</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8581297040932054</v>
+        <v>0.6384794414274632</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9071389645776566</v>
+        <v>0.7742238946378175</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9407708827851249</v>
+        <v>0.7845567206863679</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9934846129934721</v>
+        <v>0.9974473948744592</v>
       </c>
       <c r="L24" t="n">
-        <v>-3.574931880108992</v>
+        <v>-1.317027281279398</v>
       </c>
       <c r="M24" t="n">
         <v>3.712310601229374</v>
       </c>
       <c r="N24" t="n">
-        <v>0.8827783528200732</v>
+        <v>1.12751827377379</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PerfTerr009-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr003-v2</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9466866502515791</v>
+        <v>0.9260872232104521</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9400136841895442</v>
+        <v>0.9110535099335467</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8987702002236</v>
+        <v>0.8623486406214302</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9404445389769223</v>
+        <v>0.9630054853935451</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9530121780364263</v>
+        <v>0.8918950850661626</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9945633876578924</v>
+        <v>0.9888088452929881</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.318728065511007</v>
+        <v>7.972955734149764</v>
       </c>
       <c r="M25" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N25" t="n">
-        <v>0.6200778466296726</v>
+        <v>0.8687928599111778</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PerfTerr010-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr003-v3</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9466484268125855</v>
+        <v>0.9526577608853614</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9404849184351747</v>
+        <v>0.9436120309048147</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8987012987012987</v>
+        <v>0.909595474436973</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9622991347342398</v>
+        <v>0.9441613117660093</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9314986539036794</v>
+        <v>0.9613085166384658</v>
       </c>
       <c r="K26" t="n">
-        <v>0.9914008912031242</v>
+        <v>0.9957430436617271</v>
       </c>
       <c r="L26" t="n">
-        <v>3.30655129789864</v>
+        <v>-1.78373587414137</v>
       </c>
       <c r="M26" t="n">
-        <v>3.712310601229374</v>
+        <v>2.625</v>
       </c>
       <c r="N26" t="n">
-        <v>0.7831115942375979</v>
+        <v>0.6337186897440011</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PerfTerr010-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr003-v3</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.8221093595409273</v>
+        <v>0.7456140350877193</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8224013547609613</v>
+        <v>0.6711318619090584</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6979504983760779</v>
+        <v>0.5944055944055944</v>
       </c>
       <c r="I27" t="n">
-        <v>0.881595699533173</v>
+        <v>0.776255707762557</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7701433514582303</v>
+        <v>0.7172995780590717</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9774630138978081</v>
+        <v>0.9992503999731487</v>
       </c>
       <c r="L27" t="n">
-        <v>14.4716367237233</v>
+        <v>8.21917808219178</v>
       </c>
       <c r="M27" t="n">
-        <v>5.869678440936948</v>
+        <v>7.102860250712379</v>
       </c>
       <c r="N27" t="n">
-        <v>1.514283145573311</v>
+        <v>1.299634193660183</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1893,49 +1893,49 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PerfTerr010-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr003-v3</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.9232600258732212</v>
+        <v>0.9549387927395525</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9121150957975734</v>
+        <v>0.9463380276476637</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8574586697424068</v>
+        <v>0.9137635060082803</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9310164892506784</v>
+        <v>0.9497271200671704</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9156317356050497</v>
+        <v>0.9602079796264855</v>
       </c>
       <c r="K28" t="n">
-        <v>0.9897273113549452</v>
+        <v>0.9953167149565391</v>
       </c>
       <c r="L28" t="n">
-        <v>1.680233771655187</v>
+        <v>-1.09151973131822</v>
       </c>
       <c r="M28" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N28" t="n">
-        <v>1.070452682478743</v>
+        <v>0.6630148620915371</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>sub-p011</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1945,205 +1945,205 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PerfTerr011-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr004-v1</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.917145572197837</v>
+        <v>0.9512559529367821</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8949071338701788</v>
+        <v>0.9456337624168019</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8469703301295445</v>
+        <v>0.9070430059656308</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9562181543687488</v>
+        <v>0.9265963252683281</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8811407703677941</v>
+        <v>0.9772640061396777</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9826966405913774</v>
+        <v>0.9969849629799252</v>
       </c>
       <c r="L29" t="n">
-        <v>8.520475561426684</v>
+        <v>-5.18464617063853</v>
       </c>
       <c r="M29" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N29" t="n">
-        <v>1.124012283655743</v>
+        <v>0.709410402323533</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>sub-p011</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PerfTerr011-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr004-v1</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.9180459156433529</v>
+        <v>0.6268174474959612</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9054520535107884</v>
+        <v>0.6386650100654275</v>
       </c>
       <c r="H30" t="n">
-        <v>0.848507278559092</v>
+        <v>0.4564705882352941</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8990066225165563</v>
+        <v>0.5052083333333334</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9379090909090909</v>
+        <v>0.825531914893617</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9912574880958476</v>
+        <v>0.9995404411764706</v>
       </c>
       <c r="L30" t="n">
-        <v>-4.147786685256187</v>
+        <v>-38.80208333333333</v>
       </c>
       <c r="M30" t="n">
-        <v>5.25</v>
+        <v>10.60501054884671</v>
       </c>
       <c r="N30" t="n">
-        <v>1.155473155813884</v>
+        <v>1.782562793616309</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>sub-p011</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PerfTerr011-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Perfusion_Left</t>
+          <t>PerfTerr004-v1</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9261416692605273</v>
+        <v>0.9611720985861347</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9112431936597547</v>
+        <v>0.9590240349434931</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8624430641821946</v>
+        <v>0.9252467105263158</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9190715735592622</v>
+        <v>0.9680777835140251</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9333213837605305</v>
+        <v>0.9543642378488422</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9904943208677766</v>
+        <v>0.9931006181230604</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.526784926308357</v>
+        <v>1.436929960419893</v>
       </c>
       <c r="M31" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N31" t="n">
-        <v>1.034222382499761</v>
+        <v>0.504669437183582</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>sub-p001</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PerfTerr001-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr004-v2</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9306930693069307</v>
+        <v>0.9463543449557436</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9224210129777092</v>
+        <v>0.9368090528841589</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8703703703703703</v>
+        <v>0.8981713543117051</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9509054895302773</v>
+        <v>0.9475127301214258</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9113220338983051</v>
+        <v>0.9451987887076292</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9920758009014685</v>
+        <v>0.9929334408222905</v>
       </c>
       <c r="L32" t="n">
-        <v>4.343520090548953</v>
+        <v>0.2448100274187231</v>
       </c>
       <c r="M32" t="n">
         <v>2.625</v>
       </c>
       <c r="N32" t="n">
-        <v>0.6629477938645567</v>
+        <v>0.6633284539021354</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>sub-p001</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2153,205 +2153,205 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PerfTerr001-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr004-v2</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.9211925432397874</v>
+        <v>0.7620817843866171</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9128097852514296</v>
+        <v>0.7151675458378417</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8538989394884592</v>
+        <v>0.6156156156156156</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9314099074578116</v>
+        <v>0.8299595141700404</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9111969111969112</v>
+        <v>0.7044673539518901</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9918907746924087</v>
+        <v>0.9990375253209182</v>
       </c>
       <c r="L33" t="n">
-        <v>2.218290691344583</v>
+        <v>17.81376518218623</v>
       </c>
       <c r="M33" t="n">
-        <v>3.712310601229374</v>
+        <v>7.648050345720133</v>
       </c>
       <c r="N33" t="n">
-        <v>0.8028082901694178</v>
+        <v>1.120970449063102</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>sub-p001</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PerfTerr001-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr004-v2</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9295439524124256</v>
+        <v>0.9617726657645467</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9218907292747776</v>
+        <v>0.9601895811588266</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8683625586564584</v>
+        <v>0.9263603779732812</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9382254836557705</v>
+        <v>0.969727978170035</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9210216110019647</v>
+        <v>0.9539468165422363</v>
       </c>
       <c r="K34" t="n">
-        <v>0.9926557456914926</v>
+        <v>0.992950059712609</v>
       </c>
       <c r="L34" t="n">
-        <v>1.867911941294196</v>
+        <v>1.654302038031892</v>
       </c>
       <c r="M34" t="n">
         <v>2.625</v>
       </c>
       <c r="N34" t="n">
-        <v>0.7084034782973486</v>
+        <v>0.5505047095979179</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PerfTerr002-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr004-v3</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9395807644882861</v>
+        <v>0.9460993620334556</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9138246866466313</v>
+        <v>0.9375142430892124</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8860465116279069</v>
+        <v>0.8977121067683508</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9463763880771479</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9328820394642086</v>
+        <v>0.9320993764228447</v>
       </c>
       <c r="K35" t="n">
-        <v>0.9943689883512978</v>
+        <v>0.9914030778485137</v>
       </c>
       <c r="L35" t="n">
-        <v>1.446522501461134</v>
+        <v>3.049775601795186</v>
       </c>
       <c r="M35" t="n">
         <v>2.625</v>
       </c>
       <c r="N35" t="n">
-        <v>0.7693618131117426</v>
+        <v>0.683539574160978</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PerfTerr002-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr004-v3</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.9402702891954345</v>
+        <v>0.6954643628509719</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9316229582168046</v>
+        <v>0.7229263610132524</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8872736883837716</v>
+        <v>0.5331125827814569</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9713541666666666</v>
+        <v>0.7252252252252253</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9111141267471842</v>
+        <v>0.6680497925311203</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9920786571207431</v>
+        <v>0.9991049251493657</v>
       </c>
       <c r="L36" t="n">
-        <v>6.611689814814816</v>
+        <v>8.558558558558559</v>
       </c>
       <c r="M36" t="n">
-        <v>2.625</v>
+        <v>7.077717233408382</v>
       </c>
       <c r="N36" t="n">
-        <v>0.6818245024606669</v>
+        <v>1.341643793838341</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2361,49 +2361,49 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PerfTerr002-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr004-v3</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.8912728327051319</v>
+        <v>0.9624656955879248</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8628215003446352</v>
+        <v>0.9565274081997615</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8038702928870293</v>
+        <v>0.9276471066981362</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9199461319766572</v>
+        <v>0.9710342477423752</v>
       </c>
       <c r="J37" t="n">
-        <v>0.8643329115703641</v>
+        <v>0.9540470410981836</v>
       </c>
       <c r="K37" t="n">
-        <v>0.9883618558317353</v>
+        <v>0.9929490637281344</v>
       </c>
       <c r="L37" t="n">
-        <v>6.43423612150232</v>
+        <v>1.780541829953995</v>
       </c>
       <c r="M37" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N37" t="n">
-        <v>1.160047087639156</v>
+        <v>0.536837754683142</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p005</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2413,205 +2413,205 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PerfTerr003-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr005-v1</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.9055901343726368</v>
+        <v>0.9444296446267783</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8889335171091642</v>
+        <v>0.9379926541259387</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8274689061337303</v>
+        <v>0.8947102766000404</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9599210753483783</v>
+        <v>0.9375859515497725</v>
       </c>
       <c r="J38" t="n">
-        <v>0.8570799383395727</v>
+        <v>0.951373980249034</v>
       </c>
       <c r="K38" t="n">
-        <v>0.9840718606962732</v>
+        <v>0.9943478857599162</v>
       </c>
       <c r="L38" t="n">
-        <v>11.99901344185473</v>
+        <v>-1.449275362318841</v>
       </c>
       <c r="M38" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N38" t="n">
-        <v>1.242081748593893</v>
+        <v>0.7561073348652538</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p005</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PerfTerr003-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr005-v1</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.9260872232104521</v>
+        <v>0.6947368421052632</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9110535099335467</v>
+        <v>0.6795097440041511</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8623486406214302</v>
+        <v>0.532258064516129</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9630054853935451</v>
+        <v>0.5907928388746803</v>
       </c>
       <c r="J39" t="n">
-        <v>0.8918950850661626</v>
+        <v>0.843065693430657</v>
       </c>
       <c r="K39" t="n">
-        <v>0.9888088452929881</v>
+        <v>0.9995179858534453</v>
       </c>
       <c r="L39" t="n">
-        <v>7.972955734149764</v>
+        <v>-29.923273657289</v>
       </c>
       <c r="M39" t="n">
-        <v>3.712310601229374</v>
+        <v>5.869678440936948</v>
       </c>
       <c r="N39" t="n">
-        <v>0.8687928599111778</v>
+        <v>1.172115912069585</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p005</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PerfTerr003-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr005-v1</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.9549387927395525</v>
+        <v>0.9548878018479695</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9463380276476637</v>
+        <v>0.9507981608485382</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9137635060082803</v>
+        <v>0.9136701337295691</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9497271200671704</v>
+        <v>0.952963967454475</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9602079796264855</v>
+        <v>0.956819419590757</v>
       </c>
       <c r="K40" t="n">
-        <v>0.9953167149565391</v>
+        <v>0.9927635439076863</v>
       </c>
       <c r="L40" t="n">
-        <v>-1.09151973131822</v>
+        <v>-0.4029445951181713</v>
       </c>
       <c r="M40" t="n">
         <v>2.625</v>
       </c>
       <c r="N40" t="n">
-        <v>0.6630148620915371</v>
+        <v>0.6005004604440081</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p005</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PerfTerr004-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr005-v2</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.9611720985861347</v>
+        <v>0.9506432268976475</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9590240349434931</v>
+        <v>0.937444718846222</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9252467105263158</v>
+        <v>0.9059294715248608</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9680777835140251</v>
+        <v>0.9503022850701917</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9543642378488422</v>
+        <v>0.9509844134536505</v>
       </c>
       <c r="K41" t="n">
-        <v>0.9931006181230604</v>
+        <v>0.9940131010383136</v>
       </c>
       <c r="L41" t="n">
-        <v>1.436929960419893</v>
+        <v>-0.07172866072343478</v>
       </c>
       <c r="M41" t="n">
         <v>2.625</v>
       </c>
       <c r="N41" t="n">
-        <v>0.504669437183582</v>
+        <v>0.7000132367905656</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p005</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2621,92 +2621,92 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PerfTerr004-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr005-v2</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9617726657645467</v>
+        <v>0.6751592356687898</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9601895811588266</v>
+        <v>0.6672252523838319</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9263603779732812</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="I42" t="n">
-        <v>0.969727978170035</v>
+        <v>0.6794871794871795</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9539468165422363</v>
+        <v>0.6708860759493671</v>
       </c>
       <c r="K42" t="n">
-        <v>0.992950059712609</v>
+        <v>0.9997095685976631</v>
       </c>
       <c r="L42" t="n">
-        <v>1.654302038031892</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="M42" t="n">
-        <v>2.625</v>
+        <v>9.121003044239103</v>
       </c>
       <c r="N42" t="n">
-        <v>0.5505047095979179</v>
+        <v>2.023281882408683</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p005</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PerfTerr004-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr005-v2</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.9624656955879248</v>
+        <v>0.9552042160737813</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9565274081997615</v>
+        <v>0.9501884690207262</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9276471066981362</v>
+        <v>0.914249684741488</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9710342477423752</v>
+        <v>0.9665908556191671</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9540470410981836</v>
+        <v>0.94408272692455</v>
       </c>
       <c r="K43" t="n">
-        <v>0.9929490637281344</v>
+        <v>0.9905008523207849</v>
       </c>
       <c r="L43" t="n">
-        <v>1.780541829953995</v>
+        <v>2.384126735158027</v>
       </c>
       <c r="M43" t="n">
         <v>2.625</v>
       </c>
       <c r="N43" t="n">
-        <v>0.536837754683142</v>
+        <v>0.6185481639651146</v>
       </c>
     </row>
     <row r="44">
@@ -2720,45 +2720,45 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PerfTerr005-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr005-v3</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.9548878018479695</v>
+        <v>0.9422596754057428</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9507981608485382</v>
+        <v>0.9329607103757543</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9136701337295691</v>
+        <v>0.8908232516966657</v>
       </c>
       <c r="I44" t="n">
-        <v>0.952963967454475</v>
+        <v>0.9495701404906689</v>
       </c>
       <c r="J44" t="n">
-        <v>0.956819419590757</v>
+        <v>0.9350609126574437</v>
       </c>
       <c r="K44" t="n">
-        <v>0.9927635439076863</v>
+        <v>0.992143588718743</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.4029445951181713</v>
+        <v>1.551687984902495</v>
       </c>
       <c r="M44" t="n">
         <v>2.625</v>
       </c>
       <c r="N44" t="n">
-        <v>0.6005004604440081</v>
+        <v>0.8180647086338078</v>
       </c>
     </row>
     <row r="45">
@@ -2772,45 +2772,45 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PerfTerr005-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr005-v3</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.9552042160737813</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9501884690207262</v>
+        <v>0.4327082348090751</v>
       </c>
       <c r="H45" t="n">
-        <v>0.914249684741488</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9665908556191671</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="J45" t="n">
-        <v>0.94408272692455</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="K45" t="n">
-        <v>0.9905008523207849</v>
+        <v>0.9994304030735897</v>
       </c>
       <c r="L45" t="n">
-        <v>2.384126735158027</v>
+        <v>31.74603174603174</v>
       </c>
       <c r="M45" t="n">
-        <v>2.625</v>
+        <v>10.68611418512029</v>
       </c>
       <c r="N45" t="n">
-        <v>0.6185481639651146</v>
+        <v>3.093475440978845</v>
       </c>
     </row>
     <row r="46">
@@ -2829,12 +2829,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>Perfusion_Right</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>PerfTerr005-v3</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2881,40 +2881,40 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>Perfusion_Left</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>PerfTerr006-v1</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Perfusion_Right</t>
-        </is>
-      </c>
       <c r="F47" t="n">
-        <v>0.9252628943415123</v>
+        <v>0.904532967032967</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9077180499982047</v>
+        <v>0.8248413176264064</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8609202096680256</v>
+        <v>0.8257053291536051</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9704569327731093</v>
+        <v>0.9531046461137647</v>
       </c>
       <c r="J47" t="n">
-        <v>0.884090909090909</v>
+        <v>0.8606718076068488</v>
       </c>
       <c r="K47" t="n">
-        <v>0.9881806206088993</v>
+        <v>0.9871086333458297</v>
       </c>
       <c r="L47" t="n">
-        <v>9.768907563025211</v>
+        <v>10.73961499493414</v>
       </c>
       <c r="M47" t="n">
-        <v>5.25</v>
+        <v>5.869678440936948</v>
       </c>
       <c r="N47" t="n">
-        <v>1.097421453108313</v>
+        <v>1.34539130617756</v>
       </c>
     </row>
     <row r="48">
@@ -2928,45 +2928,45 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PerfTerr006-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr006-v1</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.9366838148001583</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9130231492323819</v>
+        <v>0.4956176673567977</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8809080759211017</v>
+        <v>0.1604938271604938</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9812076827414674</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="J48" t="n">
-        <v>0.8960252365930599</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="K48" t="n">
-        <v>0.9899955076915605</v>
+        <v>0.9996314990173307</v>
       </c>
       <c r="L48" t="n">
-        <v>9.506701671963521</v>
+        <v>-4.166666666666666</v>
       </c>
       <c r="M48" t="n">
-        <v>3.712310601229374</v>
+        <v>23.89928241480607</v>
       </c>
       <c r="N48" t="n">
-        <v>0.8616974167944886</v>
+        <v>7.622720689406156</v>
       </c>
     </row>
     <row r="49">
@@ -2980,106 +2980,106 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PerfTerr006-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr006-v1</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.9446422790547102</v>
+        <v>0.9252628943415123</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9367756684463141</v>
+        <v>0.9077180499982047</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8950920245398774</v>
+        <v>0.8609202096680256</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9516044873467258</v>
+        <v>0.9704569327731093</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9377812058105155</v>
+        <v>0.884090909090909</v>
       </c>
       <c r="K49" t="n">
-        <v>0.9940928064051554</v>
+        <v>0.9881806206088993</v>
       </c>
       <c r="L49" t="n">
-        <v>1.474041220975737</v>
+        <v>9.768907563025211</v>
       </c>
       <c r="M49" t="n">
-        <v>3.712310601229374</v>
+        <v>5.25</v>
       </c>
       <c r="N49" t="n">
-        <v>0.7727630315543046</v>
+        <v>1.097421453108313</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p006</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>PerfTerr008-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr006-v2</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.9270981119720616</v>
+        <v>0.9289181461533347</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9131512519496264</v>
+        <v>0.91789673216179</v>
       </c>
       <c r="H50" t="n">
-        <v>0.8641033465568101</v>
+        <v>0.8672709212813509</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9576146995829106</v>
+        <v>0.9559326673053237</v>
       </c>
       <c r="J50" t="n">
-        <v>0.8984664198836594</v>
+        <v>0.903388515261252</v>
       </c>
       <c r="K50" t="n">
-        <v>0.9881083625462969</v>
+        <v>0.9909226787211549</v>
       </c>
       <c r="L50" t="n">
-        <v>6.583248788186225</v>
+        <v>5.816340495415355</v>
       </c>
       <c r="M50" t="n">
         <v>3.712310601229374</v>
       </c>
       <c r="N50" t="n">
-        <v>0.8346697105012622</v>
+        <v>0.9543373477277266</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p006</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3089,205 +3089,205 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>PerfTerr008-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr006-v2</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.9263480392156863</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9130623995319416</v>
+        <v>0.6886765963421014</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8628010501084351</v>
+        <v>0.3398058252427185</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9523749527529293</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9017058332339258</v>
+        <v>0.3608247422680412</v>
       </c>
       <c r="K51" t="n">
-        <v>0.9899097510500472</v>
+        <v>0.9993077189338871</v>
       </c>
       <c r="L51" t="n">
-        <v>5.619251606400403</v>
+        <v>136.5853658536585</v>
       </c>
       <c r="M51" t="n">
-        <v>2.625</v>
+        <v>8.493278836056559</v>
       </c>
       <c r="N51" t="n">
-        <v>0.7257782026691708</v>
+        <v>1.959275908314755</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p006</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>PerfTerr008-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr006-v2</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.9235373152558934</v>
+        <v>0.9366838148001583</v>
       </c>
       <c r="G52" t="n">
-        <v>0.909001969844774</v>
+        <v>0.9130231492323819</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8579371383183932</v>
+        <v>0.8809080759211017</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9418285999003487</v>
+        <v>0.9812076827414674</v>
       </c>
       <c r="J52" t="n">
-        <v>0.9059429666906302</v>
+        <v>0.8960252365930599</v>
       </c>
       <c r="K52" t="n">
-        <v>0.9903765998136616</v>
+        <v>0.9899955076915605</v>
       </c>
       <c r="L52" t="n">
-        <v>3.961136023916293</v>
+        <v>9.506701671963521</v>
       </c>
       <c r="M52" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N52" t="n">
-        <v>0.7284302901546462</v>
+        <v>0.8616974167944886</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p006</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>PerfTerr009-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr006-v3</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.9617513588989178</v>
+        <v>0.9267628641437518</v>
       </c>
       <c r="G53" t="n">
-        <v>0.955353736882195</v>
+        <v>0.9102008678814546</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9263208453410182</v>
+        <v>0.8635210553018772</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9533366287691547</v>
+        <v>0.9714611872146118</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9703159589454619</v>
+        <v>0.8859968766267569</v>
       </c>
       <c r="K53" t="n">
-        <v>0.9962886079134428</v>
+        <v>0.9893936458736924</v>
       </c>
       <c r="L53" t="n">
-        <v>-1.749876421156698</v>
+        <v>9.646118721461187</v>
       </c>
       <c r="M53" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N53" t="n">
-        <v>0.4984670304463195</v>
+        <v>0.9829440617070305</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p006</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>PerfTerr009-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr006-v3</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.9258927158605411</v>
+        <v>0.7039106145251397</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9125009046074067</v>
+        <v>0.6151136716533235</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8620113926537026</v>
+        <v>0.5431034482758621</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9155105872535726</v>
+        <v>0.7590361445783133</v>
       </c>
       <c r="J54" t="n">
-        <v>0.936513017498933</v>
+        <v>0.65625</v>
       </c>
       <c r="K54" t="n">
-        <v>0.9925637083973854</v>
+        <v>0.9992620256278373</v>
       </c>
       <c r="L54" t="n">
-        <v>-2.242620214874309</v>
+        <v>15.66265060240964</v>
       </c>
       <c r="M54" t="n">
-        <v>3.712310601229374</v>
+        <v>8.990520889983276</v>
       </c>
       <c r="N54" t="n">
-        <v>0.844571465075838</v>
+        <v>1.909451913469424</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p006</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3297,49 +3297,49 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>PerfTerr009-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr006-v3</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.9635487959442333</v>
+        <v>0.9446422790547102</v>
       </c>
       <c r="G55" t="n">
-        <v>0.96027888853319</v>
+        <v>0.9367756684463141</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9296615143807474</v>
+        <v>0.8950920245398774</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9660465589102368</v>
+        <v>0.9516044873467258</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9610639158576052</v>
+        <v>0.9377812058105155</v>
       </c>
       <c r="K55" t="n">
-        <v>0.9951732006067976</v>
+        <v>0.9940928064051554</v>
       </c>
       <c r="L55" t="n">
-        <v>0.5184507471790181</v>
+        <v>1.474041220975737</v>
       </c>
       <c r="M55" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N55" t="n">
-        <v>0.5243234995621673</v>
+        <v>0.7727630315543046</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3349,205 +3349,205 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>PerfTerr010-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr008-v1</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.9558156197754956</v>
+        <v>0.9440933918817608</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9447879071984217</v>
+        <v>0.9388151204683711</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9153705397987191</v>
+        <v>0.894106907394259</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9704170708050437</v>
+        <v>0.9556591500433651</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9416470588235294</v>
+        <v>0.9328042328042329</v>
       </c>
       <c r="K56" t="n">
-        <v>0.9939030386468679</v>
+        <v>0.9920996317308649</v>
       </c>
       <c r="L56" t="n">
-        <v>3.055286129970902</v>
+        <v>2.450130095403296</v>
       </c>
       <c r="M56" t="n">
         <v>2.625</v>
       </c>
       <c r="N56" t="n">
-        <v>0.5856659851539099</v>
+        <v>0.7285147002417389</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>PerfTerr010-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr008-v1</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.937405136300164</v>
+        <v>0.5494791666666666</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9217125470797186</v>
+        <v>0.5257178875773864</v>
       </c>
       <c r="H57" t="n">
-        <v>0.882184893155068</v>
+        <v>0.3788150807899461</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9019745297347821</v>
+        <v>0.5733695652173914</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9757330637007078</v>
+        <v>0.5275</v>
       </c>
       <c r="K57" t="n">
-        <v>0.9976308288397231</v>
+        <v>0.9978819257665411</v>
       </c>
       <c r="L57" t="n">
-        <v>-7.559294310082953</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="M57" t="n">
-        <v>5.25</v>
+        <v>9.464572098092972</v>
       </c>
       <c r="N57" t="n">
-        <v>0.8874597008668595</v>
+        <v>2.420120277257631</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>PerfTerr010-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr008-v1</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.9627610208816705</v>
+        <v>0.9270981119720616</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9578091410206155</v>
+        <v>0.9131512519496264</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9281959512358796</v>
+        <v>0.8641033465568101</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9569880073800738</v>
+        <v>0.9576146995829106</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9686041083099907</v>
+        <v>0.8984664198836594</v>
       </c>
       <c r="K58" t="n">
-        <v>0.9966760577303282</v>
+        <v>0.9881083625462969</v>
       </c>
       <c r="L58" t="n">
-        <v>-1.199261992619926</v>
+        <v>6.583248788186225</v>
       </c>
       <c r="M58" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N58" t="n">
-        <v>0.5115987059842372</v>
+        <v>0.8346697105012622</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>sub-p011</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PerfTerr011-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr008-v2</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.9441312147616607</v>
+        <v>0.9339221458946679</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9307820727194807</v>
+        <v>0.9271551705989017</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8941747572815534</v>
+        <v>0.8760355937404112</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9546739540143234</v>
+        <v>0.9429703842342838</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9338187851414876</v>
+        <v>0.925045901285236</v>
       </c>
       <c r="K59" t="n">
-        <v>0.9909100116473388</v>
+        <v>0.9913807022119553</v>
       </c>
       <c r="L59" t="n">
-        <v>2.233320768940822</v>
+        <v>1.937685786634372</v>
       </c>
       <c r="M59" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N59" t="n">
-        <v>0.8758258849597739</v>
+        <v>0.7934764714373878</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>sub-p011</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3557,205 +3557,205 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PerfTerr011-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr008-v2</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.9246050515561441</v>
+        <v>0.7384169884169884</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9194191957358661</v>
+        <v>0.7416459417421245</v>
       </c>
       <c r="H60" t="n">
-        <v>0.8597818437719915</v>
+        <v>0.58530986993114</v>
       </c>
       <c r="I60" t="n">
-        <v>0.8936637103410442</v>
+        <v>0.7116279069767442</v>
       </c>
       <c r="J60" t="n">
-        <v>0.957765801077903</v>
+        <v>0.7673019057171514</v>
       </c>
       <c r="K60" t="n">
-        <v>0.994520931060346</v>
+        <v>0.9973792713922621</v>
       </c>
       <c r="L60" t="n">
-        <v>-6.692877388680625</v>
+        <v>-7.255813953488372</v>
       </c>
       <c r="M60" t="n">
-        <v>5.25</v>
+        <v>5.869678440936948</v>
       </c>
       <c r="N60" t="n">
-        <v>1.153329840651175</v>
+        <v>1.263339379202187</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>sub-p011</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>PerfTerr011-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Perfusion_Right</t>
+          <t>PerfTerr008-v2</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.9530567172595272</v>
+        <v>0.9263480392156863</v>
       </c>
       <c r="G61" t="n">
-        <v>0.942471225300922</v>
+        <v>0.9130623995319416</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9103231597845601</v>
+        <v>0.8628010501084351</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9516704204204204</v>
+        <v>0.9523749527529293</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9544470588235294</v>
+        <v>0.9017058332339258</v>
       </c>
       <c r="K61" t="n">
-        <v>0.9938690717470612</v>
+        <v>0.9899097510500472</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.2909159159159159</v>
+        <v>5.619251606400403</v>
       </c>
       <c r="M61" t="n">
         <v>2.625</v>
       </c>
       <c r="N61" t="n">
-        <v>0.6319836217590739</v>
+        <v>0.7257782026691708</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>sub-p001</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>PerfTerr001-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr008-v3</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.8059105431309904</v>
+        <v>0.9342530717827118</v>
       </c>
       <c r="G62" t="n">
-        <v>0.7668741385373546</v>
+        <v>0.9304037426213786</v>
       </c>
       <c r="H62" t="n">
-        <v>0.6749163879598662</v>
+        <v>0.8766181229773463</v>
       </c>
       <c r="I62" t="n">
-        <v>0.7586466165413533</v>
+        <v>0.9439181095502559</v>
       </c>
       <c r="J62" t="n">
-        <v>0.8594548551959114</v>
+        <v>0.9247839539101675</v>
       </c>
       <c r="K62" t="n">
-        <v>0.9981307352441373</v>
+        <v>0.9912331969608417</v>
       </c>
       <c r="L62" t="n">
-        <v>-11.72932330827068</v>
+        <v>2.069040618534248</v>
       </c>
       <c r="M62" t="n">
-        <v>6.599999904632568</v>
+        <v>2.625</v>
       </c>
       <c r="N62" t="n">
-        <v>1.119506136941044</v>
+        <v>0.7998759632513677</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>sub-p001</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>PerfTerr001-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr008-v3</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.7502401536983669</v>
+        <v>0.7225636523266022</v>
       </c>
       <c r="G63" t="n">
-        <v>0.6991004661202759</v>
+        <v>0.6319719238432783</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6003074558032283</v>
+        <v>0.5656357388316151</v>
       </c>
       <c r="I63" t="n">
-        <v>0.7265116279069768</v>
+        <v>0.6756978653530378</v>
       </c>
       <c r="J63" t="n">
-        <v>0.7755710029791459</v>
+        <v>0.7764150943396226</v>
       </c>
       <c r="K63" t="n">
-        <v>0.9974470488562553</v>
+        <v>0.9973184585096513</v>
       </c>
       <c r="L63" t="n">
-        <v>-6.325581395348837</v>
+        <v>-12.97208538587849</v>
       </c>
       <c r="M63" t="n">
-        <v>7.102860250712379</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="N63" t="n">
-        <v>1.476857666430022</v>
+        <v>1.455400428712992</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>sub-p001</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3765,49 +3765,49 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>PerfTerr001-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr008-v3</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.7199597787833082</v>
+        <v>0.9235373152558934</v>
       </c>
       <c r="G64" t="n">
-        <v>0.7111015784911731</v>
+        <v>0.909001969844774</v>
       </c>
       <c r="H64" t="n">
-        <v>0.5624509033778476</v>
+        <v>0.8579371383183932</v>
       </c>
       <c r="I64" t="n">
-        <v>0.6167097329888027</v>
+        <v>0.9418285999003487</v>
       </c>
       <c r="J64" t="n">
-        <v>0.8647342995169082</v>
+        <v>0.9059429666906302</v>
       </c>
       <c r="K64" t="n">
-        <v>0.9987335903843327</v>
+        <v>0.9903765998136616</v>
       </c>
       <c r="L64" t="n">
-        <v>-28.68217054263566</v>
+        <v>3.961136023916293</v>
       </c>
       <c r="M64" t="n">
-        <v>6.015742733675939</v>
+        <v>2.625</v>
       </c>
       <c r="N64" t="n">
-        <v>1.258756700307323</v>
+        <v>0.7284302901546462</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3817,205 +3817,205 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>PerfTerr002-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr009-v1</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.7933884297520661</v>
+        <v>0.9424249020461472</v>
       </c>
       <c r="G65" t="n">
-        <v>0.8114463221911581</v>
+        <v>0.9340609670903696</v>
       </c>
       <c r="H65" t="n">
-        <v>0.6575342465753424</v>
+        <v>0.8911186580220233</v>
       </c>
       <c r="I65" t="n">
-        <v>0.713091922005571</v>
+        <v>0.9620042217531385</v>
       </c>
       <c r="J65" t="n">
-        <v>0.8940628637951106</v>
+        <v>0.9236266666666667</v>
       </c>
       <c r="K65" t="n">
-        <v>0.9989720185714447</v>
+        <v>0.9911165150932394</v>
       </c>
       <c r="L65" t="n">
-        <v>-20.2414113277623</v>
+        <v>4.155093878457949</v>
       </c>
       <c r="M65" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N65" t="n">
-        <v>0.9257611980831084</v>
+        <v>0.6939721358934622</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>PerfTerr002-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr009-v1</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.700198544010589</v>
+        <v>0.7274774774774775</v>
       </c>
       <c r="G66" t="n">
-        <v>0.6941008421235944</v>
+        <v>0.718796467485897</v>
       </c>
       <c r="H66" t="n">
-        <v>0.5386965376782077</v>
+        <v>0.5716814159292035</v>
       </c>
       <c r="I66" t="n">
-        <v>0.6396614268440145</v>
+        <v>0.6646090534979424</v>
       </c>
       <c r="J66" t="n">
-        <v>0.7733918128654971</v>
+        <v>0.8034825870646766</v>
       </c>
       <c r="K66" t="n">
-        <v>0.9982539736181046</v>
+        <v>0.9991134950737258</v>
       </c>
       <c r="L66" t="n">
-        <v>-17.29141475211608</v>
+        <v>-17.28395061728395</v>
       </c>
       <c r="M66" t="n">
-        <v>7.102860250712379</v>
+        <v>5.25</v>
       </c>
       <c r="N66" t="n">
-        <v>1.615010323073335</v>
+        <v>1.027580096506969</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PerfTerr002-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr009-v1</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.5297342893293969</v>
+        <v>0.9617513588989178</v>
       </c>
       <c r="G67" t="n">
-        <v>0.49444379446586</v>
+        <v>0.955353736882195</v>
       </c>
       <c r="H67" t="n">
-        <v>0.3602983362019507</v>
+        <v>0.9263208453410182</v>
       </c>
       <c r="I67" t="n">
-        <v>0.4700598802395209</v>
+        <v>0.9533366287691547</v>
       </c>
       <c r="J67" t="n">
-        <v>0.6067632850241546</v>
+        <v>0.9703159589454619</v>
       </c>
       <c r="K67" t="n">
-        <v>0.9953888334995015</v>
+        <v>0.9962886079134428</v>
       </c>
       <c r="L67" t="n">
-        <v>-22.52994011976048</v>
+        <v>-1.749876421156698</v>
       </c>
       <c r="M67" t="n">
-        <v>18.375</v>
+        <v>2.625</v>
       </c>
       <c r="N67" t="n">
-        <v>4.615640859406839</v>
+        <v>0.4984670304463195</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PerfTerr003-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr009-v2</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.5594936708860759</v>
+        <v>0.9236488735989347</v>
       </c>
       <c r="G68" t="n">
-        <v>0.6062653950172104</v>
+        <v>0.914022890193805</v>
       </c>
       <c r="H68" t="n">
-        <v>0.3884007029876977</v>
+        <v>0.8581297040932054</v>
       </c>
       <c r="I68" t="n">
-        <v>0.6557863501483679</v>
+        <v>0.9071389645776566</v>
       </c>
       <c r="J68" t="n">
-        <v>0.4878587196467991</v>
+        <v>0.9407708827851249</v>
       </c>
       <c r="K68" t="n">
-        <v>0.9974009387988304</v>
+        <v>0.9934846129934721</v>
       </c>
       <c r="L68" t="n">
-        <v>34.42136498516321</v>
+        <v>-3.574931880108992</v>
       </c>
       <c r="M68" t="n">
-        <v>18.375</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N68" t="n">
-        <v>3.207341468073541</v>
+        <v>0.8827783528200732</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4025,205 +4025,205 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>PerfTerr003-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr009-v2</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.7793560606060606</v>
+        <v>0.5258044930176078</v>
       </c>
       <c r="G69" t="n">
-        <v>0.7322600593983751</v>
+        <v>0.4559163190079276</v>
       </c>
       <c r="H69" t="n">
-        <v>0.6384794414274632</v>
+        <v>0.35667215815486</v>
       </c>
       <c r="I69" t="n">
-        <v>0.7742238946378175</v>
+        <v>0.3623430962343096</v>
       </c>
       <c r="J69" t="n">
-        <v>0.7845567206863679</v>
+        <v>0.9579646017699115</v>
       </c>
       <c r="K69" t="n">
-        <v>0.9974473948744592</v>
+        <v>0.9997850800294101</v>
       </c>
       <c r="L69" t="n">
-        <v>-1.317027281279398</v>
+        <v>-62.17573221757322</v>
       </c>
       <c r="M69" t="n">
-        <v>3.712310601229374</v>
+        <v>15.96725164203283</v>
       </c>
       <c r="N69" t="n">
-        <v>1.12751827377379</v>
+        <v>2.925915603669989</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>PerfTerr003-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr009-v2</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.7456140350877193</v>
+        <v>0.9258927158605411</v>
       </c>
       <c r="G70" t="n">
-        <v>0.6711318619090584</v>
+        <v>0.9125009046074067</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5944055944055944</v>
+        <v>0.8620113926537026</v>
       </c>
       <c r="I70" t="n">
-        <v>0.776255707762557</v>
+        <v>0.9155105872535726</v>
       </c>
       <c r="J70" t="n">
-        <v>0.7172995780590717</v>
+        <v>0.936513017498933</v>
       </c>
       <c r="K70" t="n">
-        <v>0.9992503999731487</v>
+        <v>0.9925637083973854</v>
       </c>
       <c r="L70" t="n">
-        <v>8.21917808219178</v>
+        <v>-2.242620214874309</v>
       </c>
       <c r="M70" t="n">
-        <v>7.102860250712379</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N70" t="n">
-        <v>1.299634193660183</v>
+        <v>0.844571465075838</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PerfTerr004-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr009-v3</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.6268174474959612</v>
+        <v>0.9466866502515791</v>
       </c>
       <c r="G71" t="n">
-        <v>0.6386650100654275</v>
+        <v>0.9400136841895442</v>
       </c>
       <c r="H71" t="n">
-        <v>0.4564705882352941</v>
+        <v>0.8987702002236</v>
       </c>
       <c r="I71" t="n">
-        <v>0.5052083333333334</v>
+        <v>0.9404445389769223</v>
       </c>
       <c r="J71" t="n">
-        <v>0.825531914893617</v>
+        <v>0.9530121780364263</v>
       </c>
       <c r="K71" t="n">
-        <v>0.9995404411764706</v>
+        <v>0.9945633876578924</v>
       </c>
       <c r="L71" t="n">
-        <v>-38.80208333333333</v>
+        <v>-1.318728065511007</v>
       </c>
       <c r="M71" t="n">
-        <v>10.60501054884671</v>
+        <v>2.625</v>
       </c>
       <c r="N71" t="n">
-        <v>1.782562793616309</v>
+        <v>0.6200778466296726</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PerfTerr004-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr009-v3</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.7620817843866171</v>
+        <v>0.7099903006789525</v>
       </c>
       <c r="G72" t="n">
-        <v>0.7151675458378417</v>
+        <v>0.7004925320979417</v>
       </c>
       <c r="H72" t="n">
-        <v>0.6156156156156156</v>
+        <v>0.5503759398496241</v>
       </c>
       <c r="I72" t="n">
-        <v>0.8299595141700404</v>
+        <v>0.5791139240506329</v>
       </c>
       <c r="J72" t="n">
-        <v>0.7044673539518901</v>
+        <v>0.9172932330827067</v>
       </c>
       <c r="K72" t="n">
-        <v>0.9990375253209182</v>
+        <v>0.9996290801186943</v>
       </c>
       <c r="L72" t="n">
-        <v>17.81376518218623</v>
+        <v>-36.86708860759494</v>
       </c>
       <c r="M72" t="n">
-        <v>7.648050345720133</v>
+        <v>17.86574931933027</v>
       </c>
       <c r="N72" t="n">
-        <v>1.120970449063102</v>
+        <v>2.077580109273571</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4233,49 +4233,49 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>PerfTerr004-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr009-v3</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.6954643628509719</v>
+        <v>0.9635487959442333</v>
       </c>
       <c r="G73" t="n">
-        <v>0.7229263610132524</v>
+        <v>0.96027888853319</v>
       </c>
       <c r="H73" t="n">
-        <v>0.5331125827814569</v>
+        <v>0.9296615143807474</v>
       </c>
       <c r="I73" t="n">
-        <v>0.7252252252252253</v>
+        <v>0.9660465589102368</v>
       </c>
       <c r="J73" t="n">
-        <v>0.6680497925311203</v>
+        <v>0.9610639158576052</v>
       </c>
       <c r="K73" t="n">
-        <v>0.9991049251493657</v>
+        <v>0.9951732006067976</v>
       </c>
       <c r="L73" t="n">
-        <v>8.558558558558559</v>
+        <v>0.5184507471790181</v>
       </c>
       <c r="M73" t="n">
-        <v>7.077717233408382</v>
+        <v>2.625</v>
       </c>
       <c r="N73" t="n">
-        <v>1.341643793838341</v>
+        <v>0.5243234995621673</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>sub-p005</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4285,205 +4285,205 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>PerfTerr005-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr010-v1</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.6947368421052632</v>
+        <v>0.9466484268125855</v>
       </c>
       <c r="G74" t="n">
-        <v>0.6795097440041511</v>
+        <v>0.9404849184351747</v>
       </c>
       <c r="H74" t="n">
-        <v>0.532258064516129</v>
+        <v>0.8987012987012987</v>
       </c>
       <c r="I74" t="n">
-        <v>0.5907928388746803</v>
+        <v>0.9622991347342398</v>
       </c>
       <c r="J74" t="n">
-        <v>0.843065693430657</v>
+        <v>0.9314986539036794</v>
       </c>
       <c r="K74" t="n">
-        <v>0.9995179858534453</v>
+        <v>0.9914008912031242</v>
       </c>
       <c r="L74" t="n">
-        <v>-29.923273657289</v>
+        <v>3.30655129789864</v>
       </c>
       <c r="M74" t="n">
-        <v>5.869678440936948</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N74" t="n">
-        <v>1.172115912069585</v>
+        <v>0.7831115942375979</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>sub-p005</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>PerfTerr005-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr010-v1</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.6751592356687898</v>
+        <v>0.7771428571428571</v>
       </c>
       <c r="G75" t="n">
-        <v>0.6672252523838319</v>
+        <v>0.7346576666857356</v>
       </c>
       <c r="H75" t="n">
-        <v>0.5096153846153846</v>
+        <v>0.6355140186915887</v>
       </c>
       <c r="I75" t="n">
-        <v>0.6794871794871795</v>
+        <v>0.7930029154518951</v>
       </c>
       <c r="J75" t="n">
-        <v>0.6708860759493671</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="K75" t="n">
-        <v>0.9997095685976631</v>
+        <v>0.9990476937383063</v>
       </c>
       <c r="L75" t="n">
-        <v>1.282051282051282</v>
+        <v>4.081632653061225</v>
       </c>
       <c r="M75" t="n">
-        <v>9.121003044239103</v>
+        <v>5.25</v>
       </c>
       <c r="N75" t="n">
-        <v>2.023281882408683</v>
+        <v>0.9176639319041491</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>sub-p005</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>PerfTerr005-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr010-v1</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.4383561643835616</v>
+        <v>0.9558156197754956</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4327082348090751</v>
+        <v>0.9447879071984217</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2807017543859649</v>
+        <v>0.9153705397987191</v>
       </c>
       <c r="I76" t="n">
-        <v>0.5079365079365079</v>
+        <v>0.9704170708050437</v>
       </c>
       <c r="J76" t="n">
-        <v>0.3855421686746988</v>
+        <v>0.9416470588235294</v>
       </c>
       <c r="K76" t="n">
-        <v>0.9994304030735897</v>
+        <v>0.9939030386468679</v>
       </c>
       <c r="L76" t="n">
-        <v>31.74603174603174</v>
+        <v>3.055286129970902</v>
       </c>
       <c r="M76" t="n">
-        <v>10.68611418512029</v>
+        <v>2.625</v>
       </c>
       <c r="N76" t="n">
-        <v>3.093475440978845</v>
+        <v>0.5856659851539099</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>sub-p006</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>PerfTerr006-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr010-v2</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.2765957446808511</v>
+        <v>0.8221093595409273</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4956176673567977</v>
+        <v>0.8224013547609613</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1604938271604938</v>
+        <v>0.6979504983760779</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2708333333333333</v>
+        <v>0.881595699533173</v>
       </c>
       <c r="J77" t="n">
-        <v>0.2826086956521739</v>
+        <v>0.7701433514582303</v>
       </c>
       <c r="K77" t="n">
-        <v>0.9996314990173307</v>
+        <v>0.9774630138978081</v>
       </c>
       <c r="L77" t="n">
-        <v>-4.166666666666666</v>
+        <v>14.4716367237233</v>
       </c>
       <c r="M77" t="n">
-        <v>23.89928241480607</v>
+        <v>5.869678440936948</v>
       </c>
       <c r="N77" t="n">
-        <v>7.622720689406156</v>
+        <v>1.514283145573311</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>sub-p006</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4493,205 +4493,205 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>PerfTerr006-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr010-v2</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.5072463768115942</v>
+        <v>0.3250366032210835</v>
       </c>
       <c r="G78" t="n">
-        <v>0.6886765963421014</v>
+        <v>0.3163123193184668</v>
       </c>
       <c r="H78" t="n">
-        <v>0.3398058252427185</v>
+        <v>0.1940559440559441</v>
       </c>
       <c r="I78" t="n">
-        <v>0.8536585365853658</v>
+        <v>0.69375</v>
       </c>
       <c r="J78" t="n">
-        <v>0.3608247422680412</v>
+        <v>0.2122370936902486</v>
       </c>
       <c r="K78" t="n">
-        <v>0.9993077189338871</v>
+        <v>0.9953935599284437</v>
       </c>
       <c r="L78" t="n">
-        <v>136.5853658536585</v>
+        <v>226.875</v>
       </c>
       <c r="M78" t="n">
-        <v>8.493278836056559</v>
+        <v>32.19130734861228</v>
       </c>
       <c r="N78" t="n">
-        <v>1.959275908314755</v>
+        <v>7.001119927496211</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>sub-p006</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>PerfTerr006-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr010-v2</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.7039106145251397</v>
+        <v>0.937405136300164</v>
       </c>
       <c r="G79" t="n">
-        <v>0.6151136716533235</v>
+        <v>0.9217125470797186</v>
       </c>
       <c r="H79" t="n">
-        <v>0.5431034482758621</v>
+        <v>0.882184893155068</v>
       </c>
       <c r="I79" t="n">
-        <v>0.7590361445783133</v>
+        <v>0.9019745297347821</v>
       </c>
       <c r="J79" t="n">
-        <v>0.65625</v>
+        <v>0.9757330637007078</v>
       </c>
       <c r="K79" t="n">
-        <v>0.9992620256278373</v>
+        <v>0.9976308288397231</v>
       </c>
       <c r="L79" t="n">
-        <v>15.66265060240964</v>
+        <v>-7.559294310082953</v>
       </c>
       <c r="M79" t="n">
-        <v>8.990520889983276</v>
+        <v>5.25</v>
       </c>
       <c r="N79" t="n">
-        <v>1.909451913469424</v>
+        <v>0.8874597008668595</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>PerfTerr008-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr010-v3</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.5494791666666666</v>
+        <v>0.9232600258732212</v>
       </c>
       <c r="G80" t="n">
-        <v>0.5257178875773864</v>
+        <v>0.9121150957975734</v>
       </c>
       <c r="H80" t="n">
-        <v>0.3788150807899461</v>
+        <v>0.8574586697424068</v>
       </c>
       <c r="I80" t="n">
-        <v>0.5733695652173914</v>
+        <v>0.9310164892506784</v>
       </c>
       <c r="J80" t="n">
-        <v>0.5275</v>
+        <v>0.9156317356050497</v>
       </c>
       <c r="K80" t="n">
-        <v>0.9978819257665411</v>
+        <v>0.9897273113549452</v>
       </c>
       <c r="L80" t="n">
-        <v>8.695652173913043</v>
+        <v>1.680233771655187</v>
       </c>
       <c r="M80" t="n">
-        <v>9.464572098092972</v>
+        <v>5.25</v>
       </c>
       <c r="N80" t="n">
-        <v>2.420120277257631</v>
+        <v>1.070452682478743</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>PerfTerr008-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr010-v3</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.7384169884169884</v>
+        <v>0.6421052631578947</v>
       </c>
       <c r="G81" t="n">
-        <v>0.7416459417421245</v>
+        <v>0.6824696835255841</v>
       </c>
       <c r="H81" t="n">
-        <v>0.58530986993114</v>
+        <v>0.4728682170542636</v>
       </c>
       <c r="I81" t="n">
-        <v>0.7116279069767442</v>
+        <v>0.8243243243243243</v>
       </c>
       <c r="J81" t="n">
-        <v>0.7673019057171514</v>
+        <v>0.5258620689655172</v>
       </c>
       <c r="K81" t="n">
-        <v>0.9973792713922621</v>
+        <v>0.9993856533297589</v>
       </c>
       <c r="L81" t="n">
-        <v>-7.255813953488372</v>
+        <v>56.75675675675676</v>
       </c>
       <c r="M81" t="n">
-        <v>5.869678440936948</v>
+        <v>8.832503820613377</v>
       </c>
       <c r="N81" t="n">
-        <v>1.263339379202187</v>
+        <v>1.998248848600622</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4701,49 +4701,49 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>PerfTerr008-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr010-v3</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.7225636523266022</v>
+        <v>0.9627610208816705</v>
       </c>
       <c r="G82" t="n">
-        <v>0.6319719238432783</v>
+        <v>0.9578091410206155</v>
       </c>
       <c r="H82" t="n">
-        <v>0.5656357388316151</v>
+        <v>0.9281959512358796</v>
       </c>
       <c r="I82" t="n">
-        <v>0.6756978653530378</v>
+        <v>0.9569880073800738</v>
       </c>
       <c r="J82" t="n">
-        <v>0.7764150943396226</v>
+        <v>0.9686041083099907</v>
       </c>
       <c r="K82" t="n">
-        <v>0.9973184585096513</v>
+        <v>0.9966760577303282</v>
       </c>
       <c r="L82" t="n">
-        <v>-12.97208538587849</v>
+        <v>-1.199261992619926</v>
       </c>
       <c r="M82" t="n">
-        <v>6.599999904632568</v>
+        <v>2.625</v>
       </c>
       <c r="N82" t="n">
-        <v>1.455400428712992</v>
+        <v>0.5115987059842372</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p011</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4753,144 +4753,144 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>PerfTerr009-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr011-v1</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.7274774774774775</v>
+        <v>0.917145572197837</v>
       </c>
       <c r="G83" t="n">
-        <v>0.718796467485897</v>
+        <v>0.8949071338701788</v>
       </c>
       <c r="H83" t="n">
-        <v>0.5716814159292035</v>
+        <v>0.8469703301295445</v>
       </c>
       <c r="I83" t="n">
-        <v>0.6646090534979424</v>
+        <v>0.9562181543687488</v>
       </c>
       <c r="J83" t="n">
-        <v>0.8034825870646766</v>
+        <v>0.8811407703677941</v>
       </c>
       <c r="K83" t="n">
-        <v>0.9991134950737258</v>
+        <v>0.9826966405913774</v>
       </c>
       <c r="L83" t="n">
-        <v>-17.28395061728395</v>
+        <v>8.520475561426684</v>
       </c>
       <c r="M83" t="n">
         <v>5.25</v>
       </c>
       <c r="N83" t="n">
-        <v>1.027580096506969</v>
+        <v>1.124012283655743</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p011</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>PerfTerr009-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr011-v1</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.5258044930176078</v>
+        <v>0.6462264150943396</v>
       </c>
       <c r="G84" t="n">
-        <v>0.4559163190079276</v>
+        <v>0.6021343339159169</v>
       </c>
       <c r="H84" t="n">
-        <v>0.35667215815486</v>
+        <v>0.4773519163763066</v>
       </c>
       <c r="I84" t="n">
-        <v>0.3623430962343096</v>
+        <v>0.6782178217821783</v>
       </c>
       <c r="J84" t="n">
-        <v>0.9579646017699115</v>
+        <v>0.6171171171171171</v>
       </c>
       <c r="K84" t="n">
-        <v>0.9997850800294101</v>
+        <v>0.9990491957314481</v>
       </c>
       <c r="L84" t="n">
-        <v>-62.17573221757322</v>
+        <v>9.900990099009901</v>
       </c>
       <c r="M84" t="n">
-        <v>15.96725164203283</v>
+        <v>7.572400460960178</v>
       </c>
       <c r="N84" t="n">
-        <v>2.925915603669989</v>
+        <v>1.67297628038241</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p011</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>PerfTerr009-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr011-v1</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.7099903006789525</v>
+        <v>0.9441312147616607</v>
       </c>
       <c r="G85" t="n">
-        <v>0.7004925320979417</v>
+        <v>0.9307820727194807</v>
       </c>
       <c r="H85" t="n">
-        <v>0.5503759398496241</v>
+        <v>0.8941747572815534</v>
       </c>
       <c r="I85" t="n">
-        <v>0.5791139240506329</v>
+        <v>0.9546739540143234</v>
       </c>
       <c r="J85" t="n">
-        <v>0.9172932330827067</v>
+        <v>0.9338187851414876</v>
       </c>
       <c r="K85" t="n">
-        <v>0.9996290801186943</v>
+        <v>0.9909100116473388</v>
       </c>
       <c r="L85" t="n">
-        <v>-36.86708860759494</v>
+        <v>2.233320768940822</v>
       </c>
       <c r="M85" t="n">
-        <v>17.86574931933027</v>
+        <v>5.25</v>
       </c>
       <c r="N85" t="n">
-        <v>2.077580109273571</v>
+        <v>0.8758258849597739</v>
       </c>
     </row>
     <row r="86">
@@ -4899,50 +4899,50 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p011</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>PerfTerr010-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr011-v2</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.7771428571428571</v>
+        <v>0.9180459156433529</v>
       </c>
       <c r="G86" t="n">
-        <v>0.7346576666857356</v>
+        <v>0.9054520535107884</v>
       </c>
       <c r="H86" t="n">
-        <v>0.6355140186915887</v>
+        <v>0.848507278559092</v>
       </c>
       <c r="I86" t="n">
-        <v>0.7930029154518951</v>
+        <v>0.8990066225165563</v>
       </c>
       <c r="J86" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.9379090909090909</v>
       </c>
       <c r="K86" t="n">
-        <v>0.9990476937383063</v>
+        <v>0.9912574880958476</v>
       </c>
       <c r="L86" t="n">
-        <v>4.081632653061225</v>
+        <v>-4.147786685256187</v>
       </c>
       <c r="M86" t="n">
         <v>5.25</v>
       </c>
       <c r="N86" t="n">
-        <v>0.9176639319041491</v>
+        <v>1.155473155813884</v>
       </c>
     </row>
     <row r="87">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p011</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4961,40 +4961,40 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>PerfTerr010-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr011-v2</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.3250366032210835</v>
+        <v>0.5765550239234449</v>
       </c>
       <c r="G87" t="n">
-        <v>0.3163123193184668</v>
+        <v>0.6093121745150202</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1940559440559441</v>
+        <v>0.4050420168067227</v>
       </c>
       <c r="I87" t="n">
-        <v>0.69375</v>
+        <v>0.4438305709023941</v>
       </c>
       <c r="J87" t="n">
-        <v>0.2122370936902486</v>
+        <v>0.8225255972696246</v>
       </c>
       <c r="K87" t="n">
-        <v>0.9953935599284437</v>
+        <v>0.9994161042927563</v>
       </c>
       <c r="L87" t="n">
-        <v>226.875</v>
+        <v>-46.04051565377532</v>
       </c>
       <c r="M87" t="n">
-        <v>32.19130734861228</v>
+        <v>10.27499993874209</v>
       </c>
       <c r="N87" t="n">
-        <v>7.001119927496211</v>
+        <v>1.919431345259125</v>
       </c>
     </row>
     <row r="88">
@@ -5003,50 +5003,50 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p011</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>PerfTerr010-v3</t>
+          <t>Perfusion_Right</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr011-v2</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.6421052631578947</v>
+        <v>0.9246050515561441</v>
       </c>
       <c r="G88" t="n">
-        <v>0.6824696835255841</v>
+        <v>0.9194191957358661</v>
       </c>
       <c r="H88" t="n">
-        <v>0.4728682170542636</v>
+        <v>0.8597818437719915</v>
       </c>
       <c r="I88" t="n">
-        <v>0.8243243243243243</v>
+        <v>0.8936637103410442</v>
       </c>
       <c r="J88" t="n">
-        <v>0.5258620689655172</v>
+        <v>0.957765801077903</v>
       </c>
       <c r="K88" t="n">
-        <v>0.9993856533297589</v>
+        <v>0.994520931060346</v>
       </c>
       <c r="L88" t="n">
-        <v>56.75675675675676</v>
+        <v>-6.692877388680625</v>
       </c>
       <c r="M88" t="n">
-        <v>8.832503820613377</v>
+        <v>5.25</v>
       </c>
       <c r="N88" t="n">
-        <v>1.998248848600622</v>
+        <v>1.153329840651175</v>
       </c>
     </row>
     <row r="89">
@@ -5060,45 +5060,45 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>PerfTerr011-v1</t>
+          <t>Perfusion_Left</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr011-v3</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.6462264150943396</v>
+        <v>0.9261416692605273</v>
       </c>
       <c r="G89" t="n">
-        <v>0.6021343339159169</v>
+        <v>0.9112431936597547</v>
       </c>
       <c r="H89" t="n">
-        <v>0.4773519163763066</v>
+        <v>0.8624430641821946</v>
       </c>
       <c r="I89" t="n">
-        <v>0.6782178217821783</v>
+        <v>0.9190715735592622</v>
       </c>
       <c r="J89" t="n">
-        <v>0.6171171171171171</v>
+        <v>0.9333213837605305</v>
       </c>
       <c r="K89" t="n">
-        <v>0.9990491957314481</v>
+        <v>0.9904943208677766</v>
       </c>
       <c r="L89" t="n">
-        <v>9.900990099009901</v>
+        <v>-1.526784926308357</v>
       </c>
       <c r="M89" t="n">
-        <v>7.572400460960178</v>
+        <v>5.25</v>
       </c>
       <c r="N89" t="n">
-        <v>1.67297628038241</v>
+        <v>1.034222382499761</v>
       </c>
     </row>
     <row r="90">
@@ -5112,45 +5112,45 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>PerfTerr011-v2</t>
+          <t>Perfusion_Overlap</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Perfusion_Overlap</t>
+          <t>PerfTerr011-v3</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.5765550239234449</v>
+        <v>0.5556858147713951</v>
       </c>
       <c r="G90" t="n">
-        <v>0.6093121745150202</v>
+        <v>0.547410861437459</v>
       </c>
       <c r="H90" t="n">
-        <v>0.4050420168067227</v>
+        <v>0.3847402597402597</v>
       </c>
       <c r="I90" t="n">
-        <v>0.4438305709023941</v>
+        <v>0.4531548757170172</v>
       </c>
       <c r="J90" t="n">
-        <v>0.8225255972696246</v>
+        <v>0.7181818181818181</v>
       </c>
       <c r="K90" t="n">
-        <v>0.9994161042927563</v>
+        <v>0.9989559594508122</v>
       </c>
       <c r="L90" t="n">
-        <v>-46.04051565377532</v>
+        <v>-36.90248565965583</v>
       </c>
       <c r="M90" t="n">
-        <v>10.27499993874209</v>
+        <v>10.71408140804653</v>
       </c>
       <c r="N90" t="n">
-        <v>1.919431345259125</v>
+        <v>2.463328996830402</v>
       </c>
     </row>
     <row r="91">
@@ -5169,40 +5169,40 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>Perfusion_Right</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
           <t>PerfTerr011-v3</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Perfusion_Overlap</t>
-        </is>
-      </c>
       <c r="F91" t="n">
-        <v>0.5556858147713951</v>
+        <v>0.9530567172595272</v>
       </c>
       <c r="G91" t="n">
-        <v>0.547410861437459</v>
+        <v>0.942471225300922</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3847402597402597</v>
+        <v>0.9103231597845601</v>
       </c>
       <c r="I91" t="n">
-        <v>0.4531548757170172</v>
+        <v>0.9516704204204204</v>
       </c>
       <c r="J91" t="n">
-        <v>0.7181818181818181</v>
+        <v>0.9544470588235294</v>
       </c>
       <c r="K91" t="n">
-        <v>0.9989559594508122</v>
+        <v>0.9938690717470612</v>
       </c>
       <c r="L91" t="n">
-        <v>-36.90248565965583</v>
+        <v>-0.2909159159159159</v>
       </c>
       <c r="M91" t="n">
-        <v>10.71408140804653</v>
+        <v>2.625</v>
       </c>
       <c r="N91" t="n">
-        <v>2.463328996830402</v>
+        <v>0.6319836217590739</v>
       </c>
     </row>
   </sheetData>
@@ -5227,17 +5227,17 @@
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
     <col width="20" customWidth="1" min="10" max="10"/>
     <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="23" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
-    <col width="21" customWidth="1" min="14" max="14"/>
+    <col width="21" customWidth="1" min="12" max="12"/>
+    <col width="19" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5258,12 +5258,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Hemisphere</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Base_Name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Hemisphere</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -5328,12 +5328,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>PerfTerr001-v1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Left</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -5375,45 +5375,45 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PerfTerr001-v2</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr001-v1</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9196167836467032</v>
+        <v>0.9494305776833658</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9104344224456862</v>
+        <v>0.9427452993413201</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8511949924127465</v>
+        <v>0.9037294989889912</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9369454013988934</v>
+        <v>0.9579661824243868</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9029175050301811</v>
+        <v>0.941045736343432</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9879406655752865</v>
+        <v>0.9937932563237358</v>
       </c>
       <c r="L3" t="n">
-        <v>3.76866061175488</v>
+        <v>1.798047154084306</v>
       </c>
       <c r="M3" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000189245591381</v>
+        <v>0.5567599491045681</v>
       </c>
     </row>
     <row r="4">
@@ -5427,45 +5427,45 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PerfTerr001-v3</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr001-v2</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.9375512369195158</v>
+        <v>0.9196167836467032</v>
       </c>
       <c r="G4" t="n">
-        <v>0.927411632608405</v>
+        <v>0.9104344224456862</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8824437182280319</v>
+        <v>0.8511949924127465</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9217712876920159</v>
+        <v>0.9369454013988934</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9538808752821116</v>
+        <v>0.9029175050301811</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9940546967895363</v>
+        <v>0.9879406655752865</v>
       </c>
       <c r="L4" t="n">
-        <v>-3.366205196282951</v>
+        <v>3.76866061175488</v>
       </c>
       <c r="M4" t="n">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N4" t="n">
-        <v>0.769650837525065</v>
+        <v>1.000189245591381</v>
       </c>
     </row>
     <row r="5">
@@ -5474,50 +5474,50 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PerfTerr002-v1</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr001-v2</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9401017996727867</v>
+        <v>0.9443362257245735</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9314679756349171</v>
+        <v>0.9380650174191693</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8869736729268501</v>
+        <v>0.8945426079176918</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9136925795053004</v>
+        <v>0.9496616407455776</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9680831149382254</v>
+        <v>0.9390702042733036</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9956438426162494</v>
+        <v>0.9936065634354558</v>
       </c>
       <c r="L5" t="n">
-        <v>-5.618374558303887</v>
+        <v>1.127864181408049</v>
       </c>
       <c r="M5" t="n">
-        <v>3.712310601229374</v>
+        <v>2.625</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7303711846762861</v>
+        <v>0.6427001932553438</v>
       </c>
     </row>
     <row r="6">
@@ -5526,50 +5526,50 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PerfTerr002-v2</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr001-v3</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9324913683445394</v>
+        <v>0.9375512369195158</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9166819183119633</v>
+        <v>0.927411632608405</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8735211507362328</v>
+        <v>0.8824437182280319</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9118613949355842</v>
+        <v>0.9217712876920159</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9540764153574417</v>
+        <v>0.9538808752821116</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9936945561299381</v>
+        <v>0.9940546967895363</v>
       </c>
       <c r="L6" t="n">
-        <v>-4.4247001332741</v>
+        <v>-3.366205196282951</v>
       </c>
       <c r="M6" t="n">
-        <v>3.712310601229374</v>
+        <v>2.625</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8189979558222424</v>
+        <v>0.769650837525065</v>
       </c>
     </row>
     <row r="7">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5588,49 +5588,49 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PerfTerr002-v3</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr001-v3</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.8777365491651206</v>
+        <v>0.9438635434312752</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8614517419918167</v>
+        <v>0.9366261297618991</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7821127459084146</v>
+        <v>0.8936946902654868</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8610428610428611</v>
+        <v>0.9333410351201479</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8950903415003311</v>
+        <v>0.9546260191421482</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9858925595654552</v>
+        <v>0.9952559794425776</v>
       </c>
       <c r="L7" t="n">
-        <v>-3.803803803803804</v>
+        <v>-2.229667282809612</v>
       </c>
       <c r="M7" t="n">
-        <v>6.599999904632568</v>
+        <v>2.625</v>
       </c>
       <c r="N7" t="n">
-        <v>1.471631160456588</v>
+        <v>0.6428253484601275</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -5640,257 +5640,257 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PerfTerr003-v1</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr002-v1</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9347670250896057</v>
+        <v>0.9401017996727867</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9225329898501842</v>
+        <v>0.9314679756349171</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8775235531628532</v>
+        <v>0.8869736729268501</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9467217692393611</v>
+        <v>0.9136925795053004</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9231104334567632</v>
+        <v>0.9680831149382254</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9912457995957692</v>
+        <v>0.9956438426162494</v>
       </c>
       <c r="L8" t="n">
-        <v>2.557801854127108</v>
+        <v>-5.618374558303887</v>
       </c>
       <c r="M8" t="n">
-        <v>5.25</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N8" t="n">
-        <v>1.022435187575549</v>
+        <v>0.7303711846762861</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PerfTerr003-v2</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr002-v1</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9303065662458895</v>
+        <v>0.9587228900337086</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9161895469826866</v>
+        <v>0.9495197976518922</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8696945656485522</v>
+        <v>0.9207182995357929</v>
       </c>
       <c r="I9" t="n">
-        <v>0.914303586321935</v>
+        <v>0.9515212725665951</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9468797236018138</v>
+        <v>0.966034350166624</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9938506149385061</v>
+        <v>0.9967555920126349</v>
       </c>
       <c r="L9" t="n">
-        <v>-3.440366972477064</v>
+        <v>-1.502335563691453</v>
       </c>
       <c r="M9" t="n">
-        <v>3.712310601229374</v>
+        <v>2.625</v>
       </c>
       <c r="N9" t="n">
-        <v>1.03117134213571</v>
+        <v>0.5647055902207112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PerfTerr003-v3</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr002-v2</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.9532893661089007</v>
+        <v>0.9324913683445394</v>
       </c>
       <c r="G10" t="n">
-        <v>0.94346955827515</v>
+        <v>0.9166819183119633</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9107477608831493</v>
+        <v>0.8735211507362328</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9459167117360735</v>
+        <v>0.9118613949355842</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9607778510217535</v>
+        <v>0.9540764153574417</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9955572148590629</v>
+        <v>0.9936945561299381</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.546782044348296</v>
+        <v>-4.4247001332741</v>
       </c>
       <c r="M10" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6335651041466257</v>
+        <v>0.8189979558222424</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PerfTerr004-v1</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr002-v2</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9471343649317058</v>
+        <v>0.9456686930091185</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9423123476833759</v>
+        <v>0.9375579737564357</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8995776226187397</v>
+        <v>0.896936936936937</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9172086482685885</v>
+        <v>0.9648533402248353</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9790787128248428</v>
+        <v>0.927232087420837</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9971491396282376</v>
+        <v>0.9928415240468599</v>
       </c>
       <c r="L11" t="n">
-        <v>-6.31921251538056</v>
+        <v>4.057371753456518</v>
       </c>
       <c r="M11" t="n">
         <v>2.625</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7957903187747982</v>
+        <v>0.6545642106528771</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PerfTerr004-v2</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr002-v3</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9453471196454948</v>
+        <v>0.8777365491651206</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9353701867219071</v>
+        <v>0.8614517419918167</v>
       </c>
       <c r="H12" t="n">
-        <v>0.896358543417367</v>
+        <v>0.7821127459084146</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9484654364662014</v>
+        <v>0.8610428610428611</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9422492401215805</v>
+        <v>0.8950903415003311</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9923175092556323</v>
+        <v>0.9858925595654552</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6597189023807247</v>
+        <v>-3.803803803803804</v>
       </c>
       <c r="M12" t="n">
-        <v>2.625</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6882325562687486</v>
+        <v>1.471631160456588</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5900,49 +5900,49 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PerfTerr004-v3</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr002-v3</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9468826705940108</v>
+        <v>0.9283107564792479</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9382017104265949</v>
+        <v>0.9163340182210201</v>
       </c>
       <c r="H13" t="n">
-        <v>0.899123624836845</v>
+        <v>0.866212628419716</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9618990624376621</v>
+        <v>0.935777528370121</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9323279195668986</v>
+        <v>0.9209621993127147</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9912031568100134</v>
+        <v>0.992106005074711</v>
       </c>
       <c r="L13" t="n">
-        <v>3.171753441053261</v>
+        <v>1.608679386457164</v>
       </c>
       <c r="M13" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6836260942745189</v>
+        <v>0.9479452073050052</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>sub-p005</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5952,257 +5952,257 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PerfTerr005-v1</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr003-v1</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9417515694144283</v>
+        <v>0.9347670250896057</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9354380099284406</v>
+        <v>0.9225329898501842</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8899153943401731</v>
+        <v>0.8775235531628532</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9296017878911012</v>
+        <v>0.9467217692393611</v>
       </c>
       <c r="J14" t="n">
-        <v>0.95422314911366</v>
+        <v>0.9231104334567632</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9944957119213601</v>
+        <v>0.9912457995957692</v>
       </c>
       <c r="L14" t="n">
-        <v>-2.580251930109712</v>
+        <v>2.557801854127108</v>
       </c>
       <c r="M14" t="n">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7941505256766239</v>
+        <v>1.022435187575549</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>sub-p005</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PerfTerr005-v2</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr003-v1</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9507829977628636</v>
+        <v>0.9168566820532784</v>
       </c>
       <c r="G15" t="n">
-        <v>0.937407899909475</v>
+        <v>0.9110151679799839</v>
       </c>
       <c r="H15" t="n">
-        <v>0.906183368869936</v>
+        <v>0.8464777161634832</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9504930364948663</v>
+        <v>0.9759649538242955</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9510731359983725</v>
+        <v>0.8644992134242265</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9939696350438173</v>
+        <v>0.9840796510338369</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0609942055504727</v>
+        <v>12.89367748046412</v>
       </c>
       <c r="M15" t="n">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6955686920323794</v>
+        <v>1.173557792187751</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>sub-p005</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PerfTerr005-v3</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr003-v2</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9413526071244191</v>
+        <v>0.9303065662458895</v>
       </c>
       <c r="G16" t="n">
-        <v>0.932018292643611</v>
+        <v>0.9161895469826866</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8892031600507169</v>
+        <v>0.8696945656485522</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9495885845224455</v>
+        <v>0.914303586321935</v>
       </c>
       <c r="J16" t="n">
-        <v>0.93325826594329</v>
+        <v>0.9468797236018138</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9918498981237266</v>
+        <v>0.9938506149385061</v>
       </c>
       <c r="L16" t="n">
-        <v>1.749817727320071</v>
+        <v>-3.440366972477064</v>
       </c>
       <c r="M16" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N16" t="n">
-        <v>0.8303939397522795</v>
+        <v>1.03117134213571</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>sub-p006</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PerfTerr006-v1</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr003-v2</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9058277603384741</v>
+        <v>0.9466196035840347</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8261320604226817</v>
+        <v>0.9373633359334674</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8278657852064363</v>
+        <v>0.8986493452933292</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9540031622825931</v>
+        <v>0.9791058189170972</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8622840067558789</v>
+        <v>0.9162199095973931</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9871737473228223</v>
+        <v>0.9901236709707799</v>
       </c>
       <c r="L17" t="n">
-        <v>10.63676872215035</v>
+        <v>6.863626151426645</v>
       </c>
       <c r="M17" t="n">
-        <v>5.869678440936948</v>
+        <v>2.625</v>
       </c>
       <c r="N17" t="n">
-        <v>1.315636130966422</v>
+        <v>0.7573659504128247</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>sub-p006</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PerfTerr006-v2</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr003-v3</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9266653488831785</v>
+        <v>0.9532893661089007</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9162151327097733</v>
+        <v>0.94346955827515</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8633517495395948</v>
+        <v>0.9107477608831493</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9569951007076756</v>
+        <v>0.9459167117360735</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8981990037041768</v>
+        <v>0.9607778510217535</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9903102660117687</v>
+        <v>0.9955572148590629</v>
       </c>
       <c r="L18" t="n">
-        <v>6.545998911268372</v>
+        <v>-1.546782044348296</v>
       </c>
       <c r="M18" t="n">
-        <v>3.712310601229374</v>
+        <v>2.625</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9791059924943742</v>
+        <v>0.6335651041466257</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>sub-p006</t>
+          <t>sub-p003</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -6212,49 +6212,49 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PerfTerr006-v3</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr003-v3</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9267774086378737</v>
+        <v>0.955997526793075</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9088507468240961</v>
+        <v>0.9475243748612217</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8635463100544825</v>
+        <v>0.9157042740104629</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9721215500418177</v>
+        <v>0.9517800348825279</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8854748603351955</v>
+        <v>0.9602525618465997</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9890568509936185</v>
+        <v>0.9951911637634153</v>
       </c>
       <c r="L19" t="n">
-        <v>9.785335935321996</v>
+        <v>-0.8823227659792756</v>
       </c>
       <c r="M19" t="n">
-        <v>3.712310601229374</v>
+        <v>2.625</v>
       </c>
       <c r="N19" t="n">
-        <v>1.007975910855733</v>
+        <v>0.660665503893882</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6264,257 +6264,257 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PerfTerr008-v1</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr004-v1</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9352947227651476</v>
+        <v>0.9471343649317058</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9295220367472086</v>
+        <v>0.9423123476833759</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8784541062801933</v>
+        <v>0.8995776226187397</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9478732276897415</v>
+        <v>0.9172086482685885</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9230456852791878</v>
+        <v>0.9790787128248428</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9905259474052595</v>
+        <v>0.9971491396282376</v>
       </c>
       <c r="L20" t="n">
-        <v>2.689741451209341</v>
+        <v>-6.31921251538056</v>
       </c>
       <c r="M20" t="n">
         <v>2.625</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8501496002292588</v>
+        <v>0.7957903187747982</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PerfTerr008-v2</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr004-v1</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.9284804545899873</v>
+        <v>0.9666250520183104</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9208075306621287</v>
+        <v>0.9636067841693468</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8665081832312335</v>
+        <v>0.9354059278350515</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9329592439456585</v>
+        <v>0.9673496585040813</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9240444617784711</v>
+        <v>0.9659015302727878</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9901941038745248</v>
+        <v>0.9947160862953321</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9647568418980115</v>
+        <v>0.1499250374812594</v>
       </c>
       <c r="M21" t="n">
         <v>2.625</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8298571448298642</v>
+        <v>0.4542004000438917</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PerfTerr008-v3</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr004-v2</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9191705865412306</v>
+        <v>0.9453471196454948</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9159573999697918</v>
+        <v>0.9353701867219071</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8504307664979128</v>
+        <v>0.896358543417367</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9205845591770022</v>
+        <v>0.9484654364662014</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9177609508290999</v>
+        <v>0.9422492401215805</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9891665298804277</v>
+        <v>0.9923175092556323</v>
       </c>
       <c r="L22" t="n">
-        <v>0.307662724738006</v>
+        <v>0.6597189023807247</v>
       </c>
       <c r="M22" t="n">
-        <v>3.712310601229374</v>
+        <v>2.625</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9237768317893953</v>
+        <v>0.6882325562687486</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PerfTerr009-v1</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr004-v2</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.9475705980066446</v>
+        <v>0.964524931778715</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9390373150720379</v>
+        <v>0.9630678725058051</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9003649995067574</v>
+        <v>0.9314805941542884</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9620533361441973</v>
+        <v>0.9741105729079672</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9335174388871842</v>
+        <v>0.9551261054700295</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9918864603747207</v>
+        <v>0.9929405096230645</v>
       </c>
       <c r="L23" t="n">
-        <v>3.056814588384105</v>
+        <v>1.987639886420578</v>
       </c>
       <c r="M23" t="n">
         <v>2.625</v>
       </c>
       <c r="N23" t="n">
-        <v>0.6519783381360518</v>
+        <v>0.5251717345054741</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PerfTerr009-v2</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr004-v3</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.9192129747318115</v>
+        <v>0.9468826705940108</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9000280674023891</v>
+        <v>0.9382017104265949</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8505033399190893</v>
+        <v>0.899123624836845</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8717454194792671</v>
+        <v>0.9618990624376621</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9721475427465319</v>
+        <v>0.9323279195668986</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9967310362236527</v>
+        <v>0.9912031568100134</v>
       </c>
       <c r="L24" t="n">
-        <v>-10.32786885245902</v>
+        <v>3.171753441053261</v>
       </c>
       <c r="M24" t="n">
-        <v>5.869678440936948</v>
+        <v>2.625</v>
       </c>
       <c r="N24" t="n">
-        <v>1.13785558095691</v>
+        <v>0.6836260942745189</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p004</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -6524,49 +6524,49 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PerfTerr009-v3</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr004-v3</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9534824734946482</v>
+        <v>0.9624813649163492</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9468800090646907</v>
+        <v>0.9566174439066709</v>
       </c>
       <c r="H25" t="n">
-        <v>0.911100339311682</v>
+        <v>0.9276762193661691</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9365221723966118</v>
+        <v>0.9716555183946488</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9710684025625129</v>
+        <v>0.9534788316376764</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9964808647018161</v>
+        <v>0.9926970633693972</v>
       </c>
       <c r="L25" t="n">
-        <v>-3.557548579970105</v>
+        <v>1.906354515050167</v>
       </c>
       <c r="M25" t="n">
         <v>2.625</v>
       </c>
       <c r="N25" t="n">
-        <v>0.5667398352946105</v>
+        <v>0.5452010741575302</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p005</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -6576,257 +6576,257 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PerfTerr010-v1</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr005-v1</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9478886333610608</v>
+        <v>0.9417515694144283</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9411263886435093</v>
+        <v>0.9354380099284406</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9009394474932565</v>
+        <v>0.8899153943401731</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9636852054521938</v>
+        <v>0.9296017878911012</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9326015790487194</v>
+        <v>0.95422314911366</v>
       </c>
       <c r="K26" t="n">
-        <v>0.99120039221109</v>
+        <v>0.9944957119213601</v>
       </c>
       <c r="L26" t="n">
-        <v>3.333001691373993</v>
+        <v>-2.580251930109712</v>
       </c>
       <c r="M26" t="n">
-        <v>3.712310601229374</v>
+        <v>2.625</v>
       </c>
       <c r="N26" t="n">
-        <v>0.7868108363278056</v>
+        <v>0.7941505256766239</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p005</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PerfTerr010-v2</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr005-v1</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.8032062610451907</v>
+        <v>0.9590129811149377</v>
       </c>
       <c r="G27" t="n">
-        <v>0.801122251879244</v>
+        <v>0.9551688506875422</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6711317371585276</v>
+        <v>0.9212535446811605</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8802047309448057</v>
+        <v>0.9529181708784596</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7385954730121881</v>
+        <v>0.9651862573322161</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9726602809241116</v>
+        <v>0.9940107989096246</v>
       </c>
       <c r="L27" t="n">
-        <v>19.17277631760963</v>
+        <v>-1.271058965102286</v>
       </c>
       <c r="M27" t="n">
-        <v>7.102860250712379</v>
+        <v>2.625</v>
       </c>
       <c r="N27" t="n">
-        <v>2.031116200545212</v>
+        <v>0.5595479440343014</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p005</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PerfTerr010-v3</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr005-v2</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.9231872918267999</v>
+        <v>0.9507829977628636</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9115368085854224</v>
+        <v>0.937407899909475</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8573332064338061</v>
+        <v>0.906183368869936</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9328914664457332</v>
+        <v>0.9504930364948663</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9136829293031747</v>
+        <v>0.9510731359983725</v>
       </c>
       <c r="K28" t="n">
-        <v>0.9893550485339738</v>
+        <v>0.9939696350438173</v>
       </c>
       <c r="L28" t="n">
-        <v>2.102319801159901</v>
+        <v>-0.0609942055504727</v>
       </c>
       <c r="M28" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N28" t="n">
-        <v>1.083678974185154</v>
+        <v>0.6955686920323794</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>sub-p011</t>
+          <t>sub-p005</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PerfTerr011-v1</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr005-v2</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.9173733516849443</v>
+        <v>0.9555136155297924</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8946805908582884</v>
+        <v>0.9506524526879214</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8473589238845144</v>
+        <v>0.9148167268972638</v>
       </c>
       <c r="I29" t="n">
-        <v>0.956574074074074</v>
+        <v>0.9668719307818224</v>
       </c>
       <c r="J29" t="n">
-        <v>0.881259063379681</v>
+        <v>0.9444190650220801</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9823350253807107</v>
+        <v>0.9904912011045838</v>
       </c>
       <c r="L29" t="n">
-        <v>8.546296296296296</v>
+        <v>2.377426143892743</v>
       </c>
       <c r="M29" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N29" t="n">
-        <v>1.132391977369013</v>
+        <v>0.6214154085932002</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>sub-p011</t>
+          <t>sub-p005</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PerfTerr011-v2</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr005-v3</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.9163520933424846</v>
+        <v>0.9413526071244191</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9023165333376773</v>
+        <v>0.932018292643611</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8456179241548571</v>
+        <v>0.8892031600507169</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8886762625842416</v>
+        <v>0.9495885845224455</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9458071371646153</v>
+        <v>0.93325826594329</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9921114705920264</v>
+        <v>0.9918498981237266</v>
       </c>
       <c r="L30" t="n">
-        <v>-6.040435976370746</v>
+        <v>1.749817727320071</v>
       </c>
       <c r="M30" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N30" t="n">
-        <v>1.211948405341072</v>
+        <v>0.8303939397522795</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>sub-p011</t>
+          <t>sub-p005</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6836,49 +6836,49 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PerfTerr011-v3</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>PerfTerr005-v3</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9229714677405535</v>
+        <v>0.9507231053883624</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9074520088196067</v>
+        <v>0.9424547772728457</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8569610182975338</v>
+        <v>0.9060745645602418</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9087227939935887</v>
+        <v>0.9314146197099734</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9376740947075209</v>
+        <v>0.9708490784298605</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9907905229851054</v>
+        <v>0.9950318069502129</v>
       </c>
       <c r="L31" t="n">
-        <v>-3.087565378775097</v>
+        <v>-4.061852619118082</v>
       </c>
       <c r="M31" t="n">
-        <v>5.25</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N31" t="n">
-        <v>1.095550302975156</v>
+        <v>0.7563175291456891</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>sub-p001</t>
+          <t>sub-p006</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6888,257 +6888,257 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PerfTerr001-v1</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr006-v1</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9494305776833658</v>
+        <v>0.9058277603384741</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9427452993413201</v>
+        <v>0.8261320604226817</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9037294989889912</v>
+        <v>0.8278657852064363</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9579661824243868</v>
+        <v>0.9540031622825931</v>
       </c>
       <c r="J32" t="n">
-        <v>0.941045736343432</v>
+        <v>0.8622840067558789</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9937932563237358</v>
+        <v>0.9871737473228223</v>
       </c>
       <c r="L32" t="n">
-        <v>1.798047154084306</v>
+        <v>10.63676872215035</v>
       </c>
       <c r="M32" t="n">
-        <v>2.625</v>
+        <v>5.869678440936948</v>
       </c>
       <c r="N32" t="n">
-        <v>0.5567599491045681</v>
+        <v>1.315636130966422</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>sub-p001</t>
+          <t>sub-p006</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PerfTerr001-v2</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr006-v1</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.9443362257245735</v>
+        <v>0.9249533291848164</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9380650174191693</v>
+        <v>0.9072873896324662</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8945426079176918</v>
+        <v>0.8603843482287566</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9496616407455776</v>
+        <v>0.9697286012526096</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9390702042733036</v>
+        <v>0.8841303830597192</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9936065634354558</v>
+        <v>0.9881126733059949</v>
       </c>
       <c r="L33" t="n">
-        <v>1.127864181408049</v>
+        <v>9.681628392484342</v>
       </c>
       <c r="M33" t="n">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N33" t="n">
-        <v>0.6427001932553438</v>
+        <v>1.111732858709334</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>sub-p001</t>
+          <t>sub-p006</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PerfTerr001-v3</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr006-v2</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9438635434312752</v>
+        <v>0.9266653488831785</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9366261297618991</v>
+        <v>0.9162151327097733</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8936946902654868</v>
+        <v>0.8633517495395948</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9333410351201479</v>
+        <v>0.9569951007076756</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9546260191421482</v>
+        <v>0.8981990037041768</v>
       </c>
       <c r="K34" t="n">
-        <v>0.9952559794425776</v>
+        <v>0.9903102660117687</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.229667282809612</v>
+        <v>6.545998911268372</v>
       </c>
       <c r="M34" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N34" t="n">
-        <v>0.6428253484601275</v>
+        <v>0.9791059924943742</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p006</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PerfTerr002-v1</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr006-v2</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9587228900337086</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9495197976518922</v>
+        <v>0.9151724519760828</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9207182995357929</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9515212725665951</v>
+        <v>0.9880461665292662</v>
       </c>
       <c r="J35" t="n">
-        <v>0.966034350166624</v>
+        <v>0.8964098728496634</v>
       </c>
       <c r="K35" t="n">
-        <v>0.9967555920126349</v>
+        <v>0.9899054930638226</v>
       </c>
       <c r="L35" t="n">
-        <v>-1.502335563691453</v>
+        <v>10.22258862324814</v>
       </c>
       <c r="M35" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N35" t="n">
-        <v>0.5647055902207112</v>
+        <v>0.8381513104255141</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p006</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PerfTerr002-v2</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr006-v3</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.9456686930091185</v>
+        <v>0.9267774086378737</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9375579737564357</v>
+        <v>0.9088507468240961</v>
       </c>
       <c r="H36" t="n">
-        <v>0.896936936936937</v>
+        <v>0.8635463100544825</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9648533402248353</v>
+        <v>0.9721215500418177</v>
       </c>
       <c r="J36" t="n">
-        <v>0.927232087420837</v>
+        <v>0.8854748603351955</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9928415240468599</v>
+        <v>0.9890568509936185</v>
       </c>
       <c r="L36" t="n">
-        <v>4.057371753456518</v>
+        <v>9.785335935321996</v>
       </c>
       <c r="M36" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N36" t="n">
-        <v>0.6545642106528771</v>
+        <v>1.007975910855733</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>sub-p002</t>
+          <t>sub-p006</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7148,49 +7148,49 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PerfTerr002-v3</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr006-v3</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9283107564792479</v>
+        <v>0.9467822565335696</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9163340182210201</v>
+        <v>0.9374900159048164</v>
       </c>
       <c r="H37" t="n">
-        <v>0.866212628419716</v>
+        <v>0.8989425618841624</v>
       </c>
       <c r="I37" t="n">
-        <v>0.935777528370121</v>
+        <v>0.9551838610827375</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9209621993127147</v>
+        <v>0.9385271609584744</v>
       </c>
       <c r="K37" t="n">
-        <v>0.992106005074711</v>
+        <v>0.9940074356716564</v>
       </c>
       <c r="L37" t="n">
-        <v>1.608679386457164</v>
+        <v>1.774770173646578</v>
       </c>
       <c r="M37" t="n">
-        <v>3.712310601229374</v>
+        <v>2.625</v>
       </c>
       <c r="N37" t="n">
-        <v>0.9479452073050052</v>
+        <v>0.7637181565663208</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7200,257 +7200,257 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PerfTerr003-v1</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr008-v1</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.9168566820532784</v>
+        <v>0.9352947227651476</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9110151679799839</v>
+        <v>0.9295220367472086</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8464777161634832</v>
+        <v>0.8784541062801933</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9759649538242955</v>
+        <v>0.9478732276897415</v>
       </c>
       <c r="J38" t="n">
-        <v>0.8644992134242265</v>
+        <v>0.9230456852791878</v>
       </c>
       <c r="K38" t="n">
-        <v>0.9840796510338369</v>
+        <v>0.9905259474052595</v>
       </c>
       <c r="L38" t="n">
-        <v>12.89367748046412</v>
+        <v>2.689741451209341</v>
       </c>
       <c r="M38" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N38" t="n">
-        <v>1.173557792187751</v>
+        <v>0.8501496002292588</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PerfTerr003-v2</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr008-v1</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.9466196035840347</v>
+        <v>0.9386194616109773</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9373633359334674</v>
+        <v>0.9248998225765277</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8986493452933292</v>
+        <v>0.8843383006019935</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9791058189170972</v>
+        <v>0.9699101634376015</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9162199095973931</v>
+        <v>0.9092846270928463</v>
       </c>
       <c r="K39" t="n">
-        <v>0.9901236709707799</v>
+        <v>0.9888752006570352</v>
       </c>
       <c r="L39" t="n">
-        <v>6.863626151426645</v>
+        <v>6.667388245481113</v>
       </c>
       <c r="M39" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N39" t="n">
-        <v>0.7573659504128247</v>
+        <v>0.8136420450503929</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>sub-p003</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PerfTerr003-v3</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr008-v2</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.955997526793075</v>
+        <v>0.9284804545899873</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9475243748612217</v>
+        <v>0.9208075306621287</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9157042740104629</v>
+        <v>0.8665081832312335</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9517800348825279</v>
+        <v>0.9329592439456585</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9602525618465997</v>
+        <v>0.9240444617784711</v>
       </c>
       <c r="K40" t="n">
-        <v>0.9951911637634153</v>
+        <v>0.9901941038745248</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.8823227659792756</v>
+        <v>0.9647568418980115</v>
       </c>
       <c r="M40" t="n">
         <v>2.625</v>
       </c>
       <c r="N40" t="n">
-        <v>0.660665503893882</v>
+        <v>0.8298571448298642</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PerfTerr004-v1</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr008-v2</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.9666250520183104</v>
+        <v>0.9454110482818617</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9636067841693468</v>
+        <v>0.9375064899419883</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9354059278350515</v>
+        <v>0.8964734996906578</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9673496585040813</v>
+        <v>0.9647137150466045</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9659015302727878</v>
+        <v>0.926865671641791</v>
       </c>
       <c r="K41" t="n">
-        <v>0.9947160862953321</v>
+        <v>0.9914875663870552</v>
       </c>
       <c r="L41" t="n">
-        <v>0.1499250374812594</v>
+        <v>4.083444296493564</v>
       </c>
       <c r="M41" t="n">
         <v>2.625</v>
       </c>
       <c r="N41" t="n">
-        <v>0.4542004000438917</v>
+        <v>0.6403932642371282</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PerfTerr004-v2</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr008-v3</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.964524931778715</v>
+        <v>0.9191705865412306</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9630678725058051</v>
+        <v>0.9159573999697918</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9314805941542884</v>
+        <v>0.8504307664979128</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9741105729079672</v>
+        <v>0.9205845591770022</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9551261054700295</v>
+        <v>0.9177609508290999</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9929405096230645</v>
+        <v>0.9891665298804277</v>
       </c>
       <c r="L42" t="n">
-        <v>1.987639886420578</v>
+        <v>0.307662724738006</v>
       </c>
       <c r="M42" t="n">
-        <v>2.625</v>
+        <v>3.712310601229374</v>
       </c>
       <c r="N42" t="n">
-        <v>0.5251717345054741</v>
+        <v>0.9237768317893953</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>sub-p004</t>
+          <t>sub-p008</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -7460,49 +7460,49 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PerfTerr004-v3</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr008-v3</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.9624813649163492</v>
+        <v>0.9553935234827364</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9566174439066709</v>
+        <v>0.9492913407856732</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9276762193661691</v>
+        <v>0.9145965920755492</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9716555183946488</v>
+        <v>0.963659961064244</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9534788316376764</v>
+        <v>0.9472677014671487</v>
       </c>
       <c r="K43" t="n">
-        <v>0.9926970633693972</v>
+        <v>0.9938273141349528</v>
       </c>
       <c r="L43" t="n">
-        <v>1.906354515050167</v>
+        <v>1.73047804455981</v>
       </c>
       <c r="M43" t="n">
         <v>2.625</v>
       </c>
       <c r="N43" t="n">
-        <v>0.5452010741575302</v>
+        <v>0.5551541984347483</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>sub-p005</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -7512,257 +7512,257 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PerfTerr005-v1</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr009-v1</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.9590129811149377</v>
+        <v>0.9475705980066446</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9551688506875422</v>
+        <v>0.9390373150720379</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9212535446811605</v>
+        <v>0.9003649995067574</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9529181708784596</v>
+        <v>0.9620533361441973</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9651862573322161</v>
+        <v>0.9335174388871842</v>
       </c>
       <c r="K44" t="n">
-        <v>0.9940107989096246</v>
+        <v>0.9918864603747207</v>
       </c>
       <c r="L44" t="n">
-        <v>-1.271058965102286</v>
+        <v>3.056814588384105</v>
       </c>
       <c r="M44" t="n">
         <v>2.625</v>
       </c>
       <c r="N44" t="n">
-        <v>0.5595479440343014</v>
+        <v>0.6519783381360518</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>sub-p005</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PerfTerr005-v2</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr009-v1</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.9555136155297924</v>
+        <v>0.9608901198605606</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9506524526879214</v>
+        <v>0.9549145822786876</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9148167268972638</v>
+        <v>0.9247242647058823</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9668719307818224</v>
+        <v>0.9490614093010094</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9444190650220801</v>
+        <v>0.9730174081237911</v>
       </c>
       <c r="K45" t="n">
-        <v>0.9904912011045838</v>
+        <v>0.9964683097254395</v>
       </c>
       <c r="L45" t="n">
-        <v>2.377426143892743</v>
+        <v>-2.462031883784549</v>
       </c>
       <c r="M45" t="n">
         <v>2.625</v>
       </c>
       <c r="N45" t="n">
-        <v>0.6214154085932002</v>
+        <v>0.5038646851304832</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>sub-p005</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PerfTerr005-v3</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr009-v2</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.9507231053883624</v>
+        <v>0.9192129747318115</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9424547772728457</v>
+        <v>0.9000280674023891</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9060745645602418</v>
+        <v>0.8505033399190893</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9314146197099734</v>
+        <v>0.8717454194792671</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9708490784298605</v>
+        <v>0.9721475427465319</v>
       </c>
       <c r="K46" t="n">
-        <v>0.9950318069502129</v>
+        <v>0.9967310362236527</v>
       </c>
       <c r="L46" t="n">
-        <v>-4.061852619118082</v>
+        <v>-10.32786885245902</v>
       </c>
       <c r="M46" t="n">
-        <v>3.712310601229374</v>
+        <v>5.869678440936948</v>
       </c>
       <c r="N46" t="n">
-        <v>0.7563175291456891</v>
+        <v>1.13785558095691</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>sub-p006</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PerfTerr006-v1</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr009-v2</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.9249533291848164</v>
+        <v>0.9402115888576142</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9072873896324662</v>
+        <v>0.9389830239064851</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8603843482287566</v>
+        <v>0.8871691546844949</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9697286012526096</v>
+        <v>0.8984418475236505</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8841303830597192</v>
+        <v>0.9860545602605864</v>
       </c>
       <c r="K47" t="n">
-        <v>0.9881126733059949</v>
+        <v>0.998261818366363</v>
       </c>
       <c r="L47" t="n">
-        <v>9.681628392484342</v>
+        <v>-8.885179002040438</v>
       </c>
       <c r="M47" t="n">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N47" t="n">
-        <v>1.111732858709334</v>
+        <v>0.7401156426287639</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>sub-p006</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PerfTerr006-v2</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr009-v3</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9534824734946482</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9151724519760828</v>
+        <v>0.9468800090646907</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8867924528301887</v>
+        <v>0.911100339311682</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9880461665292662</v>
+        <v>0.9365221723966118</v>
       </c>
       <c r="J48" t="n">
-        <v>0.8964098728496634</v>
+        <v>0.9710684025625129</v>
       </c>
       <c r="K48" t="n">
-        <v>0.9899054930638226</v>
+        <v>0.9964808647018161</v>
       </c>
       <c r="L48" t="n">
-        <v>10.22258862324814</v>
+        <v>-3.557548579970105</v>
       </c>
       <c r="M48" t="n">
-        <v>3.712310601229374</v>
+        <v>2.625</v>
       </c>
       <c r="N48" t="n">
-        <v>0.8381513104255141</v>
+        <v>0.5667398352946105</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>sub-p006</t>
+          <t>sub-p009</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -7772,49 +7772,49 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PerfTerr006-v3</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr009-v3</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.9467822565335696</v>
+        <v>0.9609751397186356</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9374900159048164</v>
+        <v>0.9577548110080208</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8989425618841624</v>
+        <v>0.9248817583232867</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9551838610827375</v>
+        <v>0.9526220269366702</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9385271609584744</v>
+        <v>0.9694760377175076</v>
       </c>
       <c r="K49" t="n">
-        <v>0.9940074356716564</v>
+        <v>0.9960318964754648</v>
       </c>
       <c r="L49" t="n">
-        <v>1.774770173646578</v>
+        <v>-1.738465947081861</v>
       </c>
       <c r="M49" t="n">
         <v>2.625</v>
       </c>
       <c r="N49" t="n">
-        <v>0.7637181565663208</v>
+        <v>0.6630871124371119</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -7824,257 +7824,257 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>PerfTerr008-v1</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr010-v1</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.9386194616109773</v>
+        <v>0.9478886333610608</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9248998225765277</v>
+        <v>0.9411263886435093</v>
       </c>
       <c r="H50" t="n">
-        <v>0.8843383006019935</v>
+        <v>0.9009394474932565</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9699101634376015</v>
+        <v>0.9636852054521938</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9092846270928463</v>
+        <v>0.9326015790487194</v>
       </c>
       <c r="K50" t="n">
-        <v>0.9888752006570352</v>
+        <v>0.99120039221109</v>
       </c>
       <c r="L50" t="n">
-        <v>6.667388245481113</v>
+        <v>3.333001691373993</v>
       </c>
       <c r="M50" t="n">
         <v>3.712310601229374</v>
       </c>
       <c r="N50" t="n">
-        <v>0.8136420450503929</v>
+        <v>0.7868108363278056</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>PerfTerr008-v2</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr010-v1</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.9454110482818617</v>
+        <v>0.9567858780375974</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9375064899419883</v>
+        <v>0.94569043305683</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8964734996906578</v>
+        <v>0.9171519613229315</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9647137150466045</v>
+        <v>0.9715981841461995</v>
       </c>
       <c r="J51" t="n">
-        <v>0.926865671641791</v>
+        <v>0.9424184261036468</v>
       </c>
       <c r="K51" t="n">
-        <v>0.9914875663870552</v>
+        <v>0.9937044032144576</v>
       </c>
       <c r="L51" t="n">
-        <v>4.083444296493564</v>
+        <v>3.09626353160284</v>
       </c>
       <c r="M51" t="n">
         <v>2.625</v>
       </c>
       <c r="N51" t="n">
-        <v>0.6403932642371282</v>
+        <v>0.5890652151805225</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>sub-p008</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>PerfTerr008-v3</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr010-v2</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.9553935234827364</v>
+        <v>0.8032062610451907</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9492913407856732</v>
+        <v>0.801122251879244</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9145965920755492</v>
+        <v>0.6711317371585276</v>
       </c>
       <c r="I52" t="n">
-        <v>0.963659961064244</v>
+        <v>0.8802047309448057</v>
       </c>
       <c r="J52" t="n">
-        <v>0.9472677014671487</v>
+        <v>0.7385954730121881</v>
       </c>
       <c r="K52" t="n">
-        <v>0.9938273141349528</v>
+        <v>0.9726602809241116</v>
       </c>
       <c r="L52" t="n">
-        <v>1.73047804455981</v>
+        <v>19.17277631760963</v>
       </c>
       <c r="M52" t="n">
-        <v>2.625</v>
+        <v>7.102860250712379</v>
       </c>
       <c r="N52" t="n">
-        <v>0.5551541984347483</v>
+        <v>2.031116200545212</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>PerfTerr009-v1</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr010-v2</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.9608901198605606</v>
+        <v>0.9614084178617233</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9549145822786876</v>
+        <v>0.952734077588814</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9247242647058823</v>
+        <v>0.925684777727885</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9490614093010094</v>
+        <v>0.945750659479298</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9730174081237911</v>
+        <v>0.9775933609958506</v>
       </c>
       <c r="K53" t="n">
-        <v>0.9964683097254395</v>
+        <v>0.9976632336395446</v>
       </c>
       <c r="L53" t="n">
-        <v>-2.462031883784549</v>
+        <v>-3.257254272278931</v>
       </c>
       <c r="M53" t="n">
         <v>2.625</v>
       </c>
       <c r="N53" t="n">
-        <v>0.5038646851304832</v>
+        <v>0.5417064112320003</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>PerfTerr009-v2</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr010-v3</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.9402115888576142</v>
+        <v>0.9231872918267999</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9389830239064851</v>
+        <v>0.9115368085854224</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8871691546844949</v>
+        <v>0.8573332064338061</v>
       </c>
       <c r="I54" t="n">
-        <v>0.8984418475236505</v>
+        <v>0.9328914664457332</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9860545602605864</v>
+        <v>0.9136829293031747</v>
       </c>
       <c r="K54" t="n">
-        <v>0.998261818366363</v>
+        <v>0.9893550485339738</v>
       </c>
       <c r="L54" t="n">
-        <v>-8.885179002040438</v>
+        <v>2.102319801159901</v>
       </c>
       <c r="M54" t="n">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N54" t="n">
-        <v>0.7401156426287639</v>
+        <v>1.083678974185154</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>sub-p009</t>
+          <t>sub-p010</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -8084,40 +8084,40 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>PerfTerr009-v3</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr010-v3</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.9609751397186356</v>
+        <v>0.9633964429145152</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9577548110080208</v>
+        <v>0.9592496680150535</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9248817583232867</v>
+        <v>0.929377905689617</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9526220269366702</v>
+        <v>0.9599817059227075</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9694760377175076</v>
+        <v>0.966835559649931</v>
       </c>
       <c r="K55" t="n">
-        <v>0.9960318964754648</v>
+        <v>0.9964380240928092</v>
       </c>
       <c r="L55" t="n">
-        <v>-1.738465947081861</v>
+        <v>-0.7088954950834667</v>
       </c>
       <c r="M55" t="n">
         <v>2.625</v>
       </c>
       <c r="N55" t="n">
-        <v>0.6630871124371119</v>
+        <v>0.4939558022973454</v>
       </c>
     </row>
     <row r="56">
@@ -8126,7 +8126,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p011</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -8136,40 +8136,40 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>PerfTerr010-v1</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr011-v1</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.9567858780375974</v>
+        <v>0.9173733516849443</v>
       </c>
       <c r="G56" t="n">
-        <v>0.94569043305683</v>
+        <v>0.8946805908582884</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9171519613229315</v>
+        <v>0.8473589238845144</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9715981841461995</v>
+        <v>0.956574074074074</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9424184261036468</v>
+        <v>0.881259063379681</v>
       </c>
       <c r="K56" t="n">
-        <v>0.9937044032144576</v>
+        <v>0.9823350253807107</v>
       </c>
       <c r="L56" t="n">
-        <v>3.09626353160284</v>
+        <v>8.546296296296296</v>
       </c>
       <c r="M56" t="n">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N56" t="n">
-        <v>0.5890652151805225</v>
+        <v>1.132391977369013</v>
       </c>
     </row>
     <row r="57">
@@ -8178,50 +8178,50 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p011</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>PerfTerr010-v2</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr011-v1</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.9614084178617233</v>
+        <v>0.9457619374000457</v>
       </c>
       <c r="G57" t="n">
-        <v>0.952734077588814</v>
+        <v>0.9321194387202901</v>
       </c>
       <c r="H57" t="n">
-        <v>0.925684777727885</v>
+        <v>0.8971047156726768</v>
       </c>
       <c r="I57" t="n">
-        <v>0.945750659479298</v>
+        <v>0.9570001849454411</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9775933609958506</v>
+        <v>0.9347845723060247</v>
       </c>
       <c r="K57" t="n">
-        <v>0.9976632336395446</v>
+        <v>0.9908359353184576</v>
       </c>
       <c r="L57" t="n">
-        <v>-3.257254272278931</v>
+        <v>2.37654891806917</v>
       </c>
       <c r="M57" t="n">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N57" t="n">
-        <v>0.5417064112320003</v>
+        <v>0.8722882200899527</v>
       </c>
     </row>
     <row r="58">
@@ -8230,50 +8230,50 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>sub-p010</t>
+          <t>sub-p011</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>v3</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>PerfTerr010-v3</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr011-v2</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.9633964429145152</v>
+        <v>0.9163520933424846</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9592496680150535</v>
+        <v>0.9023165333376773</v>
       </c>
       <c r="H58" t="n">
-        <v>0.929377905689617</v>
+        <v>0.8456179241548571</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9599817059227075</v>
+        <v>0.8886762625842416</v>
       </c>
       <c r="J58" t="n">
-        <v>0.966835559649931</v>
+        <v>0.9458071371646153</v>
       </c>
       <c r="K58" t="n">
-        <v>0.9964380240928092</v>
+        <v>0.9921114705920264</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.7088954950834667</v>
+        <v>-6.040435976370746</v>
       </c>
       <c r="M58" t="n">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N58" t="n">
-        <v>0.4939558022973454</v>
+        <v>1.211948405341072</v>
       </c>
     </row>
     <row r="59">
@@ -8287,45 +8287,45 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>v2</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PerfTerr011-v1</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr011-v2</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.9457619374000457</v>
+        <v>0.92992992992993</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9321194387202901</v>
+        <v>0.9270127101775912</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8971047156726768</v>
+        <v>0.8690364826941066</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9570001849454411</v>
+        <v>0.8901567944250871</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9347845723060247</v>
+        <v>0.9734235092398552</v>
       </c>
       <c r="K59" t="n">
-        <v>0.9908359353184576</v>
+        <v>0.9964285714285714</v>
       </c>
       <c r="L59" t="n">
-        <v>2.37654891806917</v>
+        <v>-8.554006968641115</v>
       </c>
       <c r="M59" t="n">
         <v>5.25</v>
       </c>
       <c r="N59" t="n">
-        <v>0.8722882200899527</v>
+        <v>1.106905530290413</v>
       </c>
     </row>
     <row r="60">
@@ -8339,45 +8339,45 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>v2</t>
+          <t>v3</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PerfTerr011-v2</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>PerfTerr011-v3</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.92992992992993</v>
+        <v>0.9229714677405535</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9270127101775912</v>
+        <v>0.9074520088196067</v>
       </c>
       <c r="H60" t="n">
-        <v>0.8690364826941066</v>
+        <v>0.8569610182975338</v>
       </c>
       <c r="I60" t="n">
-        <v>0.8901567944250871</v>
+        <v>0.9087227939935887</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9734235092398552</v>
+        <v>0.9376740947075209</v>
       </c>
       <c r="K60" t="n">
-        <v>0.9964285714285714</v>
+        <v>0.9907905229851054</v>
       </c>
       <c r="L60" t="n">
-        <v>-8.554006968641115</v>
+        <v>-3.087565378775097</v>
       </c>
       <c r="M60" t="n">
         <v>5.25</v>
       </c>
       <c r="N60" t="n">
-        <v>1.106905530290413</v>
+        <v>1.095550302975156</v>
       </c>
     </row>
     <row r="61">
@@ -8396,12 +8396,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>PerfTerr011-v3</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Right</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -8454,7 +8454,7 @@
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="23" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8987,7 +8987,7 @@
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="23" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9033,19 +9033,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DSC_Volume</t>
+          <t>DSC_Slicewise</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9492517083795526</v>
+        <v>0.9148799558713951</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01240698673299785</v>
+        <v>0.03253796175960422</v>
       </c>
     </row>
     <row r="4">
@@ -9056,32 +9056,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DSC_Slicewise</t>
+          <t>IoU</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9148799558713951</v>
+        <v>0.8665439871233194</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03253796175960422</v>
+        <v>0.04548188874878736</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DSC_Slicewise</t>
+          <t>Sensitivity</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9412604523080279</v>
+        <v>0.9311436171344384</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01492938023985574</v>
+        <v>0.02772790480222672</v>
       </c>
     </row>
     <row r="6">
@@ -9092,32 +9092,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IoU</t>
+          <t>Precision</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8665439871233194</v>
+        <v>0.9259643558702303</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04548188874878736</v>
+        <v>0.04473919880018536</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IoU</t>
+          <t>Specificity</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9036684390011344</v>
+        <v>0.9910506665511785</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02227662030938354</v>
+        <v>0.004721903314804259</v>
       </c>
     </row>
     <row r="8">
@@ -9128,32 +9128,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sensitivity</t>
+          <t>RVE_Percent</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9311436171344384</v>
+        <v>0.8095626792274195</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02772790480222672</v>
+        <v>5.898037938210453</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sensitivity</t>
+          <t>HD95_mm</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9549630246173635</v>
+        <v>3.901779708194149</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02088604865466478</v>
+        <v>1.385907653778218</v>
       </c>
     </row>
     <row r="10">
@@ -9164,14 +9164,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Precision</t>
+          <t>ASSD_mm</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9259643558702303</v>
+        <v>0.9423067854145551</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04473919880018536</v>
+        <v>0.2934144212878119</v>
       </c>
     </row>
     <row r="11">
@@ -9182,32 +9182,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Precision</t>
+          <t>DSC_Volume</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9446378133963008</v>
+        <v>0.9492517083795526</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02856852509224281</v>
+        <v>0.01240698673299785</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Specificity</t>
+          <t>DSC_Slicewise</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9910506665511785</v>
+        <v>0.9412604523080279</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004721903314804259</v>
+        <v>0.01492938023985574</v>
       </c>
     </row>
     <row r="13">
@@ -9218,32 +9218,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Specificity</t>
+          <t>IoU</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9933746136426859</v>
+        <v>0.9036684390011344</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00307846704315056</v>
+        <v>0.02227662030938354</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RVE_Percent</t>
+          <t>Sensitivity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8095626792274195</v>
+        <v>0.9549630246173635</v>
       </c>
       <c r="D14" t="n">
-        <v>5.898037938210453</v>
+        <v>0.02088604865466478</v>
       </c>
     </row>
     <row r="15">
@@ -9254,32 +9254,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RVE_Percent</t>
+          <t>Precision</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.228229803521923</v>
+        <v>0.9446378133963008</v>
       </c>
       <c r="D15" t="n">
-        <v>4.789249418195414</v>
+        <v>0.02856852509224281</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HD95_mm</t>
+          <t>Specificity</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.901779708194149</v>
+        <v>0.9933746136426859</v>
       </c>
       <c r="D16" t="n">
-        <v>1.385907653778218</v>
+        <v>0.00307846704315056</v>
       </c>
     </row>
     <row r="17">
@@ -9290,32 +9290,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HD95_mm</t>
+          <t>RVE_Percent</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.119974746830584</v>
+        <v>1.228229803521923</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9118018310682633</v>
+        <v>4.789249418195414</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ASSD_mm</t>
+          <t>HD95_mm</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.9423067854145551</v>
+        <v>3.119974746830584</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2934144212878119</v>
+        <v>0.9118018310682633</v>
       </c>
     </row>
     <row r="19">
